--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang Hui Xin\Documents\FYP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4EA4C-E315-4441-ABD8-83B39EF01F9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{976DAD59-AFF1-439F-BA17-BC627826687C}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>S/N</t>
   </si>
@@ -98,121 +88,740 @@
   </si>
   <si>
     <t>Tutor Homepage to be shown</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Verfiy that once user logs out of the system, the user would not be able to access any of the pages</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Click on the logout button</t>
+  </si>
+  <si>
+    <t>Click on the logout button and access other pages thereafter</t>
+  </si>
+  <si>
+    <t>Error Accessing Page message to be shown</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Verify that should the user logins with a tutor account, the user would not be able to access functionalities as listed:</t>
+  </si>
+  <si>
+    <t>Verify that should the user logins with a tutor account, the user would not be able to access functionalities such as Schedule (Creation &amp; Update), Managing of accounts, Financial Report Generation</t>
+  </si>
+  <si>
+    <t>Username: amytan</t>
+  </si>
+  <si>
+    <t>Input username into username field and password into password field then click login. Click on the Schedule page and ensure that the user is only able to view the finalised schedule</t>
+  </si>
+  <si>
+    <t>Input username into username field and password into password field then click login. Click on the Manage Users page and ensure that the user is unable to gain access</t>
+  </si>
+  <si>
+    <t>Input username into username field and password into password field then click login. Click on the Financial Report Generation page and ensure that the user is unable to gain access</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to reset his password if the password fits the requirements</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to reset his password if the new password fits the requirements</t>
+  </si>
+  <si>
+    <t>Old Pwd: amytan86</t>
+  </si>
+  <si>
+    <t>Old Pwd: amytan86
+New Pwd: amytan97</t>
+  </si>
+  <si>
+    <t>Input old password and then input new password, then click on Reset Password</t>
+  </si>
+  <si>
+    <t>Password Reset Success</t>
+  </si>
+  <si>
+    <t>Verify that the user is unable to reset his password if the new password does not fits the requirements</t>
+  </si>
+  <si>
+    <t>Old Pwd: amytan86
+New Pwd: amytan</t>
+  </si>
+  <si>
+    <t>Password Reset Failure</t>
+  </si>
+  <si>
+    <t>Verify that the user is unable to reset his password if the old password is incorrect</t>
+  </si>
+  <si>
+    <t>Old Pwd: amytan8
+New Pwd: amytan97</t>
+  </si>
+  <si>
+    <t>Profile Management</t>
+  </si>
+  <si>
+    <t>Verify that the information entered during the adding of the user is correctly displayed on the profile page</t>
+  </si>
+  <si>
+    <t>Select Profile Page</t>
+  </si>
+  <si>
+    <t>Results to be displayed exactly the same as what was entered</t>
+  </si>
+  <si>
+    <t>Information to be displayed exactly the same as what was entered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="30">
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color theme="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <color theme="0"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <color theme="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -227,9 +836,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="36" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="40" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Explanatory Text" xfId="48" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="13" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Output" xfId="16" builtinId="21"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="Total" xfId="20" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -254,14 +1002,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -561,342 +1301,676 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044942A6-EFD1-453F-B375-EB550457435D}">
-  <dimension ref="A1:Z18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.500000"/>
   <cols>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="2" max="2" width="26.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="30.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="21.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="19.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="16.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="13.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="10.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" s="15" customFormat="1" ht="21.000000" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+    </row>
+    <row r="2" spans="1:26" ht="65.950000">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:26" ht="65.950000">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" ht="65.950000">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:26" ht="65.950000">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" ht="65.950000">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:26" ht="65.950000">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:26" ht="65.950000">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:26" ht="49.600000">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="B9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:26" ht="147.700000">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="B10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" ht="131.350000">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="B11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" ht="131.350000">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="B12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:26" ht="65.950000">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="B13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:26" ht="65.950000">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="B14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:26" ht="65.950000">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="B15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:26" ht="65.950000">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="B16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.500000">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.500000">
+      <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.500000">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.500000">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.500000">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.500000">
+      <c r="A22" s="34">
+        <v>21</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.500000">
+      <c r="A23" s="34">
+        <v>22</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.500000">
+      <c r="A24" s="34">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.500000">
+      <c r="A25" s="34">
+        <v>24</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.500000">
+      <c r="A26" s="34">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.500000">
+      <c r="A27" s="34">
+        <v>26</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.500000">
+      <c r="A28" s="34">
+        <v>27</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.500000">
+      <c r="A29" s="34">
+        <v>28</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.500000">
+      <c r="A30" s="34">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.500000">
+      <c r="A31" s="34">
+        <v>30</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.500000">
+      <c r="A32" s="34">
+        <v>31</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.500000">
+      <c r="A33" s="34">
+        <v>32</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.500000">
+      <c r="A34" s="34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.500000">
+      <c r="A35" s="34">
+        <v>34</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.500000">
+      <c r="A36" s="34">
+        <v>35</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.500000">
+      <c r="A37" s="34">
+        <v>36</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.500000">
+      <c r="A38" s="34">
+        <v>37</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.500000">
+      <c r="A39" s="34">
+        <v>38</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"fail"</formula>
@@ -906,10 +1980,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{72FDC998-D61D-4FA2-B623-0506683B1F41}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>S/N</t>
   </si>
@@ -178,6 +178,56 @@
   </si>
   <si>
     <t>Information to be displayed exactly the same as what was entered</t>
+  </si>
+  <si>
+    <t>Management of User Accounts</t>
+  </si>
+  <si>
+    <t>Verify that if the user is logged in as an admin user, the user would be able to create new accounts for access into system for tutors</t>
+  </si>
+  <si>
+    <t>Tutor Name: Amy Tan
+Academic Level: P6
+Subject: Maths
+Class: G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as an admin user and navigate to the Tutor Account Creation Page. Input the details into the corresponding field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as an admin user and navigate to the Tutor Account Creation Page. Input the details into the corresponding field and click Create Tutor </t>
+  </si>
+  <si>
+    <t>Tutor Creation Successful</t>
+  </si>
+  <si>
+    <t>Verify that the user would not be able to create tutor accounts if the mandatory fields are missing</t>
+  </si>
+  <si>
+    <t>Tutor Name: Amy Tan
+Academic Level: P6
+Subject: Maths
+Class: G1
+ID: amytan86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutor Name: Amy Tan
+Academic Level: P6
+Subject: Maths
+Class: G1
+ID: </t>
+  </si>
+  <si>
+    <t>Error Message prompting user to key in all mandatory fields would be displayed</t>
+  </si>
+  <si>
+    <t>Verify that if the user is logged in as an admin user, the user would be able to remove tutor accounts when the need arises</t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the List of Tutor Pages. Input the details into the corresponding field and click Create Tutor Select the tutor Amy Tan and press Delete</t>
+  </si>
+  <si>
+    <t>The tutor should be removed from the database</t>
   </si>
 </sst>
 </file>
@@ -384,161 +434,193 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -548,9 +630,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -565,9 +645,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -582,9 +660,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -597,9 +673,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,33 +688,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -655,9 +721,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -672,9 +736,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -689,17 +751,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -708,9 +766,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -725,9 +781,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -738,9 +792,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -753,9 +805,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -809,7 +859,7 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -926,6 +976,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1304,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A19" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
@@ -1372,7 +1428,7 @@
       <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="25" t="s">
@@ -1394,7 +1450,7 @@
       <c r="C3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -1416,7 +1472,7 @@
       <c r="C4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -1438,7 +1494,7 @@
       <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -1460,7 +1516,7 @@
       <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -1482,7 +1538,7 @@
       <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -1504,7 +1560,7 @@
       <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="38" t="s">
@@ -1548,7 +1604,7 @@
       <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="44" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -1570,7 +1626,7 @@
       <c r="C11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -1592,7 +1648,7 @@
       <c r="C12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="34" t="s">
@@ -1614,7 +1670,7 @@
       <c r="C13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="34" t="s">
@@ -1636,7 +1692,7 @@
       <c r="C14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="34" t="s">
@@ -1658,7 +1714,7 @@
       <c r="C15" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="34" t="s">
@@ -1692,39 +1748,69 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" ht="16.500000">
+    <row r="17" spans="1:8" ht="115.000000">
       <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>57</v>
+      </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" ht="16.500000">
+    <row r="18" spans="1:8" ht="115.000000">
       <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" ht="16.500000">
+    <row r="19" spans="1:8" ht="131.350000">
       <c r="A19" s="34">
         <v>18</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
     </row>
@@ -1968,7 +2054,6 @@
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
     </row>
-    <row r="40" spans="1:8"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>S/N</t>
   </si>
@@ -228,6 +228,145 @@
   </si>
   <si>
     <t>The tutor should be removed from the database</t>
+  </si>
+  <si>
+    <t>Sign Ups</t>
+  </si>
+  <si>
+    <t>Verify that when all the neccessary information are filled in, the admin user would be able to successfully create the Student record in the database</t>
+  </si>
+  <si>
+    <t>Name: Jenny Kim
+Age: 14
+Gender: F
+Phone: 91978630
+Address: Bukit Panjang Ring Rd
+Subjects: Maths, Science</t>
+  </si>
+  <si>
+    <t>Name: Jenny Kim
+Age: 14
+Gender: F
+Phone: 91978630
+Address: Bukit Panjang Ring Rd
+Subjects: Maths, Science
+Required Amt: $320</t>
+  </si>
+  <si>
+    <t>Name: Jenny Kim
+Age: 14
+Gender: F
+Phone: 91978630
+Address: Bukit Panjang Ring Rd
+Subjects: Maths, Science
+Required Amt: $320
+Outstanding Amt: $0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as an admin user and navigate to the Sign Ups Page. Input the </t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the List of Tutor Page. Input the details into the corresponding field and click Create Tutor Select the tutor Amy Tan and press Delete</t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the Sign Ups Page. Input the information as specified into the corresponding fields and click Sign Up</t>
+  </si>
+  <si>
+    <t>Student Creation Successful</t>
+  </si>
+  <si>
+    <t>Name: Jenny Kim
+ID: T0018765H
+Age: 14
+Gender: F
+Phone: 91978630
+Address: Bukit Panjang Ring Rd
+Subjects: Maths, Science
+Required Amt: $320
+Outstanding Amt: $0</t>
+  </si>
+  <si>
+    <t>Verify that when mandatory fields are empty, the admin user would not be able to successfully create the Student record in the database</t>
+  </si>
+  <si>
+    <t>Name: Jenny Kim
+ID: 
+Age: 14
+Gender: F
+Phone: 91978630
+Address: Bukit Panjang Ring Rd
+Subjects: Maths, Science
+Required Amt: $320
+Outstanding Amt: $0</t>
+  </si>
+  <si>
+    <t>Error Message regarding Student Creation Failure to be displayed</t>
+  </si>
+  <si>
+    <t>Verify that when there is a duplicate of student, the admin user would not be able to overwrite the existing record in the database</t>
+  </si>
+  <si>
+    <t>Error Message prompting that there was already a record of the specified student</t>
+  </si>
+  <si>
+    <t>Updating of Student Details</t>
+  </si>
+  <si>
+    <t>Verify that if the user is logged in as an admin user, he would be able to modify the records of a specified tutor</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the Students Records Page. Select the student Jenny Kim and edit her phone number before clicking Update</t>
+  </si>
+  <si>
+    <t>Update Successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the user is logged in as an admin user, he would be able to modify the records of a specified tutornew </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new phone number entered does not satisfy the requirements of 8 digits, the update would not be successful </t>
+  </si>
+  <si>
+    <t>Phone No. : 8333999</t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the Students Records Page. Select the student Jenny Kim and edit her phone number as specified before clicking Update</t>
+  </si>
+  <si>
+    <t>Update Unsuccessful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new  phone number entered does not satisfy the requirements of 8 digits, the update would not be successful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new  ID entered does not satisfy the requirements of 8 digits, the update would not be successful </t>
+  </si>
+  <si>
+    <t>ID : T833399</t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the Students Records Page. Select the student Jenny Kim and edit her ID as specified before clicking Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new  subjects entered does not satisfy the requirements of 8 digits, the update would not be successful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new  ID entered does not satisfy the format requirements, the update would not be successful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new  subjects entered is not being offered by the tuition centre, the update would not be successful </t>
+  </si>
+  <si>
+    <t>Subjects : Chinese</t>
+  </si>
+  <si>
+    <t>Login as an admin user and navigate to the Students Records Page. Select the student Jenny Kim and edit her subjects taken as specified before clicking Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that if the new  outstanding amount entered is not postive, the update would not be successful </t>
   </si>
 </sst>
 </file>
@@ -859,7 +998,7 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -982,6 +1121,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1360,15 +1505,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A24" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
   <cols>
     <col min="2" max="2" width="26.62999916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="30.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="21.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="29.12999916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="19.50499916" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="16.38000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="13.25500011" customWidth="1" outlineLevel="0"/>
@@ -1806,7 +1951,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>64</v>
@@ -1814,245 +1959,315 @@
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
     </row>
-    <row r="20" spans="1:8" ht="16.500000">
+    <row r="20" spans="1:8" ht="147.700000">
       <c r="A20" s="34">
         <v>19</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.500000">
+      <c r="B20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="147.700000">
       <c r="A21" s="34">
         <v>20</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.500000">
+      <c r="B21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="147.700000">
       <c r="A22" s="34">
         <v>21</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.500000">
+      <c r="B22" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="115.000000">
       <c r="A23" s="34">
         <v>22</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.500000">
+      <c r="B23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" ht="115.000000">
       <c r="A24" s="34">
         <v>23</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.500000">
+      <c r="B24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="115.000000">
       <c r="A25" s="34">
         <v>24</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.500000">
+      <c r="B25" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="115.000000">
       <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="B26" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="16.500000">
       <c r="A27" s="34">
         <v>26</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="16.500000">
       <c r="A28" s="34">
         <v>27</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="16.500000">
       <c r="A29" s="34">
         <v>28</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="16.500000">
       <c r="A30" s="34">
         <v>29</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" ht="16.500000">
       <c r="A31" s="34">
         <v>30</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="16.500000">
       <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" ht="16.500000">
       <c r="A33" s="34">
         <v>32</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" ht="16.500000">
       <c r="A34" s="34">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" ht="16.500000">
       <c r="A35" s="34">
         <v>34</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="16.500000">
       <c r="A36" s="34">
         <v>35</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" ht="16.500000">
       <c r="A37" s="34">
         <v>36</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="16.500000">
       <c r="A38" s="34">
         <v>37</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" ht="16.500000">
       <c r="A39" s="34">
         <v>38</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>S/N</t>
   </si>
@@ -368,13 +368,71 @@
   <si>
     <t xml:space="preserve">Verify that if the new  outstanding amount entered is not postive, the update would not be successful </t>
   </si>
+  <si>
+    <t>Login (App)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Email: admin
+Pwd: adminadmin</t>
+  </si>
+  <si>
+    <t>Input username into email field and password into password field before clicking login</t>
+  </si>
+  <si>
+    <t>Email: jerald@steppingstones.com.sg</t>
+  </si>
+  <si>
+    <t>Email: jerald@steppingstones.com.sg
+Pwd: jerald86</t>
+  </si>
+  <si>
+    <t>Input email into email field and password into password field before clicking login</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Error Message Username does not exist</t>
+  </si>
+  <si>
+    <t>Email: admin
+Pwd: adminadmin!</t>
+  </si>
+  <si>
+    <t>Login Error (Wrong Password)</t>
+  </si>
+  <si>
+    <t>Email: jerald@steppingstones.com.sg
+Pwd: jerald</t>
+  </si>
+  <si>
+    <t>Verify that upon successful login of the account, the user would be brought to the dashboard view</t>
+  </si>
+  <si>
+    <t>Dashboard to be shown</t>
+  </si>
+  <si>
+    <t>Dashboard Controller is shown</t>
+  </si>
+  <si>
+    <t>Error Login (Username does not exist)</t>
+  </si>
+  <si>
+    <t>Pass/Fail (Before Debugging)</t>
+  </si>
+  <si>
+    <t>Pass/Fail after debugging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -560,6 +618,25 @@
       <name val="Arial"/>
       <color theme="0"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="0"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -763,13 +840,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -784,7 +863,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -799,7 +880,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -812,7 +895,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -827,25 +912,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -860,7 +953,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -875,7 +970,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -890,13 +987,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -905,7 +1006,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -920,7 +1023,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -931,7 +1036,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -944,7 +1051,24 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -998,7 +1122,7 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1127,6 +1251,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1503,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+    <sheetView topLeftCell="A28" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
@@ -1518,6 +1686,7 @@
     <col min="6" max="6" width="16.38000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="13.25500011" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" width="10.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="23.62999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="21.000000" customHeight="1">
@@ -1544,6 +1713,9 @@
       </c>
       <c r="H1" s="22" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>117</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -1584,6 +1756,7 @@
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:26" ht="65.950000">
       <c r="A3" s="24">
@@ -1605,7 +1778,8 @@
         <v>12</v>
       </c>
       <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="65.950000">
       <c r="A4" s="24">
@@ -1627,7 +1801,8 @@
         <v>15</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="65.950000">
       <c r="A5" s="24">
@@ -1649,7 +1824,8 @@
         <v>15</v>
       </c>
       <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:26" ht="65.950000">
       <c r="A6" s="24">
@@ -1671,7 +1847,8 @@
         <v>15</v>
       </c>
       <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="65.950000">
       <c r="A7" s="24">
@@ -1693,7 +1870,8 @@
         <v>20</v>
       </c>
       <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="65.950000">
       <c r="A8" s="35">
@@ -1716,6 +1894,7 @@
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="49.600000">
       <c r="A9" s="34">
@@ -1738,6 +1917,7 @@
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="147.700000">
       <c r="A10" s="34">
@@ -1760,6 +1940,7 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="131.350000">
       <c r="A11" s="34">
@@ -1782,6 +1963,7 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="131.350000">
       <c r="A12" s="34">
@@ -1804,6 +1986,7 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:26" ht="65.950000">
       <c r="A13" s="34">
@@ -1826,6 +2009,7 @@
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:26" ht="65.950000">
       <c r="A14" s="34">
@@ -1848,6 +2032,7 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="65.950000">
       <c r="A15" s="34">
@@ -1870,6 +2055,7 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:26" ht="65.950000">
       <c r="A16" s="34">
@@ -1892,8 +2078,9 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="115.000000">
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" ht="115.000000">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -1914,8 +2101,9 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="115.000000">
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" ht="115.000000">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -1936,8 +2124,9 @@
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="131.350000">
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" ht="131.350000">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -1958,8 +2147,9 @@
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" ht="147.700000">
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" ht="147.700000">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -1980,8 +2170,9 @@
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="147.700000">
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" ht="147.700000">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -2002,8 +2193,9 @@
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="147.700000">
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" ht="147.700000">
       <c r="A22" s="34">
         <v>21</v>
       </c>
@@ -2024,8 +2216,9 @@
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="115.000000">
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" ht="115.000000">
       <c r="A23" s="34">
         <v>22</v>
       </c>
@@ -2046,8 +2239,9 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" ht="115.000000">
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="115.000000">
       <c r="A24" s="34">
         <v>23</v>
       </c>
@@ -2068,8 +2262,9 @@
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
-    </row>
-    <row r="25" spans="1:8" ht="115.000000">
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" ht="115.000000">
       <c r="A25" s="34">
         <v>24</v>
       </c>
@@ -2090,8 +2285,9 @@
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" ht="115.000000">
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" ht="115.000000">
       <c r="A26" s="34">
         <v>25</v>
       </c>
@@ -2112,92 +2308,170 @@
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.500000">
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" ht="65.950000">
       <c r="A27" s="34">
         <v>26</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.500000">
+      <c r="B27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" ht="65.950000">
       <c r="A28" s="34">
         <v>27</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.500000">
+      <c r="B28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" ht="65.950000">
       <c r="A29" s="34">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.500000">
+      <c r="B29" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" ht="65.950000">
       <c r="A30" s="34">
         <v>29</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.500000">
+      <c r="B30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:9" ht="65.950000">
       <c r="A31" s="34">
         <v>30</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.500000">
+      <c r="B31" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.500000">
       <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.500000">
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.500000">
       <c r="A33" s="34">
         <v>32</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.500000">
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.500000">
       <c r="A34" s="34">
         <v>33</v>
       </c>
@@ -2208,8 +2482,9 @@
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.500000">
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.500000">
       <c r="A35" s="34">
         <v>34</v>
       </c>
@@ -2220,8 +2495,9 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.500000">
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.500000">
       <c r="A36" s="34">
         <v>35</v>
       </c>
@@ -2232,8 +2508,9 @@
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.500000">
+      <c r="I36" s="40"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.500000">
       <c r="A37" s="34">
         <v>36</v>
       </c>
@@ -2244,8 +2521,9 @@
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.500000">
+      <c r="I37" s="40"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.500000">
       <c r="A38" s="34">
         <v>37</v>
       </c>
@@ -2256,8 +2534,9 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.500000">
+      <c r="I38" s="40"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.500000">
       <c r="A39" s="34">
         <v>38</v>
       </c>
@@ -2268,7 +2547,9 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-    </row>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="1:9"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>S/N</t>
   </si>
@@ -425,6 +425,24 @@
   </si>
   <si>
     <t>Pass/Fail after debugging</t>
+  </si>
+  <si>
+    <t>Error Message Wrong Password</t>
+  </si>
+  <si>
+    <t>Error Message Account does not exist</t>
+  </si>
+  <si>
+    <t>Error Message Username does not exist</t>
+  </si>
+  <si>
+    <t>Psas</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Login Error (Invalid Email / Password)</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A27" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
@@ -2335,7 +2353,9 @@
       <c r="H27" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="40"/>
+      <c r="I27" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="65.950000">
       <c r="A28" s="34">
@@ -2362,7 +2382,9 @@
       <c r="H28" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="65.950000">
       <c r="A29" s="34">
@@ -2384,12 +2406,14 @@
         <v>110</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="65.950000">
       <c r="A30" s="34">
@@ -2408,15 +2432,17 @@
         <v>106</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="65.950000">
       <c r="A31" s="34">
@@ -2443,7 +2469,9 @@
       <c r="H31" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="45" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="16.500000">
       <c r="A32" s="34">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>S/N</t>
   </si>
@@ -443,6 +443,25 @@
   </si>
   <si>
     <t>Login Error (Invalid Email / Password)</t>
+  </si>
+  <si>
+    <t>Account Management (App)</t>
+  </si>
+  <si>
+    <t>Old Pwd: jerald86
+New Pwd: amytan97</t>
+  </si>
+  <si>
+    <t>Old Pwd: jerald86
+New Pwd: jerald97</t>
+  </si>
+  <si>
+    <t>Old Pwd: jerald86
+New Pwd: jerald</t>
+  </si>
+  <si>
+    <t>Old Pwd: jerald8
+New Pwd: jerald97</t>
   </si>
 </sst>
 </file>
@@ -1691,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A28" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
@@ -1892,7 +1911,7 @@
       <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="65.950000">
-      <c r="A8" s="35">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -1915,7 +1934,7 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="49.600000">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -1938,7 +1957,7 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="147.700000">
-      <c r="A10" s="34">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -1961,7 +1980,7 @@
       <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="131.350000">
-      <c r="A11" s="34">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -1984,7 +2003,7 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="131.350000">
-      <c r="A12" s="34">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -2007,7 +2026,7 @@
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:26" ht="65.950000">
-      <c r="A13" s="34">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -2030,7 +2049,7 @@
       <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:26" ht="65.950000">
-      <c r="A14" s="34">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -2053,7 +2072,7 @@
       <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="65.950000">
-      <c r="A15" s="34">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -2075,205 +2094,205 @@
       <c r="H15" s="34"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:26" ht="65.950000">
-      <c r="A16" s="34">
+    <row r="16" spans="1:26" ht="115.000000">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="115.000000">
-      <c r="A17" s="34">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="115.000000">
-      <c r="A18" s="34">
+    <row r="18" spans="1:9" ht="131.350000">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="1:9" ht="131.350000">
-      <c r="A19" s="34">
+    <row r="19" spans="1:9" ht="147.700000">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="147.700000">
-      <c r="A20" s="34">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="147.700000">
-      <c r="A21" s="34">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="147.700000">
-      <c r="A22" s="34">
+    <row r="22" spans="1:9" ht="115.000000">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" ht="115.000000">
-      <c r="A23" s="34">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:9" ht="115.000000">
-      <c r="A24" s="34">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>89</v>
@@ -2283,20 +2302,20 @@
       <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9" ht="115.000000">
-      <c r="A25" s="34">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>89</v>
@@ -2305,79 +2324,85 @@
       <c r="H25" s="34"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="115.000000">
-      <c r="A26" s="34">
+    <row r="26" spans="1:9" ht="65.950000">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="40"/>
+      <c r="B26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="65.950000">
-      <c r="A27" s="34">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I27" s="45" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="65.950000">
-      <c r="A28" s="34">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>109</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>107</v>
@@ -2387,7 +2412,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="65.950000">
-      <c r="A29" s="34">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2396,14 +2421,14 @@
       <c r="C29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>109</v>
+      <c r="D29" s="56" t="s">
+        <v>111</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>120</v>
@@ -2416,91 +2441,105 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="65.950000">
-      <c r="A30" s="34">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>111</v>
+      <c r="C30" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>107</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="65.950000">
-      <c r="A31" s="34">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.500000">
-      <c r="A32" s="34">
+      <c r="B31" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="1:9" ht="65.950000">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="B32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="40"/>
     </row>
-    <row r="33" spans="1:9" ht="16.500000">
-      <c r="A33" s="34">
+    <row r="33" spans="1:9" ht="65.950000">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="B33" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9" ht="16.500000">
-      <c r="A34" s="34">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
       <c r="B34" s="34"/>
@@ -2513,7 +2552,7 @@
       <c r="I34" s="40"/>
     </row>
     <row r="35" spans="1:9" ht="16.500000">
-      <c r="A35" s="34">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
       <c r="B35" s="34"/>
@@ -2526,7 +2565,7 @@
       <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" ht="16.500000">
-      <c r="A36" s="34">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
       <c r="B36" s="34"/>
@@ -2539,7 +2578,7 @@
       <c r="I36" s="40"/>
     </row>
     <row r="37" spans="1:9" ht="16.500000">
-      <c r="A37" s="34">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
       <c r="B37" s="34"/>
@@ -2552,7 +2591,7 @@
       <c r="I37" s="40"/>
     </row>
     <row r="38" spans="1:9" ht="16.500000">
-      <c r="A38" s="34">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
       <c r="B38" s="34"/>
@@ -2564,20 +2603,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="40"/>
     </row>
-    <row r="39" spans="1:9" ht="16.500000">
-      <c r="A39" s="34">
-        <v>38</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="40"/>
-    </row>
-    <row r="40" spans="1:9"/>
+    <row r="39" spans="1:9"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>S/N</t>
   </si>
@@ -462,6 +462,39 @@
   <si>
     <t>Old Pwd: jerald8
 New Pwd: jerald97</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to reset his password if they entered the registered email address</t>
+  </si>
+  <si>
+    <t>Email: jerald@steppingstones.com.sg</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to receive his password reset email if they entered the registered email address</t>
+  </si>
+  <si>
+    <t>Input email in the email field</t>
+  </si>
+  <si>
+    <t>Password Reset Success Alert</t>
+  </si>
+  <si>
+    <t>Verify that the user is unable to receive his reset password email if he did not enter the registered email address</t>
+  </si>
+  <si>
+    <t>Email: huixin@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid Emai Alert</t>
+  </si>
+  <si>
+    <t>Invalid Email Alert</t>
+  </si>
+  <si>
+    <t>Verify that the user is unable to receive his reset password email if he left the email field blank</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1192,7 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1331,6 +1364,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1710,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A27" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
@@ -2469,7 +2505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="65.950000">
+    <row r="31" spans="1:9" ht="49.600000">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -2477,22 +2513,26 @@
         <v>124</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>130</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+        <v>133</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="65.950000">
+    <row r="32" spans="1:9" ht="49.600000">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -2500,22 +2540,26 @@
         <v>124</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+        <v>137</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="I32" s="40"/>
     </row>
-    <row r="33" spans="1:9" ht="65.950000">
+    <row r="33" spans="1:9" ht="49.600000">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -2523,19 +2567,23 @@
         <v>124</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+        <v>137</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9" ht="16.500000">
@@ -2619,6 +2667,10 @@
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId0" ref="D31"/>
+    <hyperlink r:id="rId1" ref="D32"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1746,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A25" tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.500000"/>
@@ -2399,7 +2399,7 @@
       <c r="C27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="56" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="25" t="s">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYU\Documents\YR3 Term1\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riana\Desktop\FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E4F50-4164-40FF-822E-4C1683BF7991}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592"/>
+    <workbookView xWindow="360" yWindow="40" windowWidth="25750" windowHeight="11590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>S/N</t>
   </si>
@@ -70,10 +71,6 @@
   </si>
   <si>
     <t>Login Error</t>
-  </si>
-  <si>
-    <t>Username: amytan
-Pwd: adminadmin!</t>
   </si>
   <si>
     <t>Verify that tutors are able to login with the designated accounts</t>
@@ -372,12 +369,32 @@
   <si>
     <t>Error Message, redundant subjects selected</t>
   </si>
+  <si>
+    <t>Username: jerald@steppingstones.com.sg
+Pwd: J4BuWZ6i0rFmfUTL</t>
+  </si>
+  <si>
+    <t>invalid password alert</t>
+  </si>
+  <si>
+    <t>Username: jerald@steppingstones.com.sg
+Pwd: adminadmin!</t>
+  </si>
+  <si>
+    <t>Show Admin Homepage</t>
+  </si>
+  <si>
+    <t>Show Tutor Homepage</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,32 +402,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -522,16 +558,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -571,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,15 +616,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,23 +980,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,8 +1024,8 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>75</v>
+      <c r="I1" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -989,7 +1045,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1008,11 +1064,17 @@
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1020,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -1031,11 +1093,17 @@
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1043,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>14</v>
@@ -1054,11 +1122,17 @@
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="G4" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1066,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
@@ -1077,11 +1151,17 @@
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="G5" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1089,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>14</v>
@@ -1100,11 +1180,17 @@
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+      <c r="G6" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1112,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>10</v>
@@ -1121,13 +1207,19 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1135,469 +1227,475 @@
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="H25" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
@@ -1606,210 +1704,210 @@
         <v>12</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="G30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="I30" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="E32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="G32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1822,7 +1920,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1835,7 +1933,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1848,7 +1946,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1861,7 +1959,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1875,7 +1973,7 @@
       <c r="I38" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"fail"</formula>
@@ -1885,13 +1983,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riana\Desktop\FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E4F50-4164-40FF-822E-4C1683BF7991}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{871B098A-0F05-4698-9EB3-056CE6086646}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="40" windowWidth="25750" windowHeight="11590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
   <si>
     <t>S/N</t>
   </si>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>Login Error</t>
+  </si>
+  <si>
+    <t>Username: amytan
+Pwd: adminadmin!</t>
   </si>
   <si>
     <t>Verify that tutors are able to login with the designated accounts</t>
@@ -370,42 +374,345 @@
     <t>Error Message, redundant subjects selected</t>
   </si>
   <si>
-    <t>Username: jerald@steppingstones.com.sg
-Pwd: J4BuWZ6i0rFmfUTL</t>
-  </si>
-  <si>
-    <t>invalid password alert</t>
-  </si>
-  <si>
-    <t>Username: jerald@steppingstones.com.sg
-Pwd: adminadmin!</t>
-  </si>
-  <si>
-    <t>Show Admin Homepage</t>
-  </si>
-  <si>
-    <t>Show Tutor Homepage</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>Create Tutor (Web)</t>
+  </si>
+  <si>
+    <t>Verify that the tutor is able to be created</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Input relevant fields</t>
+  </si>
+  <si>
+    <t>Successfully Created Tutor</t>
+  </si>
+  <si>
+    <t>Failed to create user</t>
+  </si>
+  <si>
+    <t>Check ID verification</t>
+  </si>
+  <si>
+    <t>Changed ID to different format</t>
+  </si>
+  <si>
+    <t>Tutor ID: S12345D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Failed to create tutor</t>
+  </si>
+  <si>
+    <t>Tutor ID: S12345671
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Changed no to less than 8digits</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 912345
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Check number verification</t>
+  </si>
+  <si>
+    <t>Changed no to more than 8digits</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 912345678
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Check email verification</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstone.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Changed email to  @steppingstone.com.sg</t>
+  </si>
+  <si>
+    <t>Changed email to not have @steppingstones.com.sg</t>
+  </si>
+  <si>
+    <t>Check for empty fields</t>
+  </si>
+  <si>
+    <t>Tutor ID:
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Left ID empty</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: 
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Left name empty</t>
+  </si>
+  <si>
+    <t>Left no empty</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 
+Tutor Email: 
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Left email empty</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 
+Tutor Gender: Male
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Left age empty</t>
+  </si>
+  <si>
+    <t>Check password verification</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: wasd123</t>
+  </si>
+  <si>
+    <t>Changed password to wasd123</t>
+  </si>
+  <si>
+    <t>Left gender empty</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: 
+Tutor password: Generated</t>
+  </si>
+  <si>
+    <t>Left password empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23
+Tutor Gender: Male
+Tutor password: </t>
+  </si>
+  <si>
+    <t>Delete Tutor (Web)</t>
+  </si>
+  <si>
+    <t>Validating tutorID</t>
+  </si>
+  <si>
+    <t>TutorID : S1234567D</t>
+  </si>
+  <si>
+    <t>Input fields correctly</t>
+  </si>
+  <si>
+    <t>Deleted Tutor</t>
+  </si>
+  <si>
+    <t>Failed to delete tutor</t>
+  </si>
+  <si>
+    <t>TutorID : S1234567</t>
+  </si>
+  <si>
+    <t>Changed format of ID</t>
+  </si>
+  <si>
+    <t>TutorID : 123</t>
+  </si>
+  <si>
+    <t>Update Tutor (Web)</t>
+  </si>
+  <si>
+    <t>Verify that the tutor is able to be updated</t>
+  </si>
+  <si>
+    <t>Successfully Updated Tutor</t>
+  </si>
+  <si>
+    <t>Failed to update tutor</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 912345
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S12345671
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 912345678
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstone.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID:
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: 
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t>Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 
+Tutor Email: 
+Tutor Age: 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutor ID: S1234567D
+Tutor Name: Shawn
+Tutor No: 91234567
+Tutor Email: shawn@steppingstones.com.sg
+Tutor Age: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -554,97 +861,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,25 +1280,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1021,11 +1321,11 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>74</v>
+      <c r="I1" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1045,935 +1345,2186 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="15"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="15"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="15"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="15"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="H20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="D21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="H26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="I27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="E28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="F29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="E30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="F31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="14"/>
+      <c r="B38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>68</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>69</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>70</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>71</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>75</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>76</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <v>81</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <v>82</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <v>83</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <v>84</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <v>85</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
+        <v>87</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <v>88</v>
+      </c>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="17">
+        <v>89</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
+        <v>90</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <v>92</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="17">
+        <v>93</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
+        <v>94</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
+        <v>95</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <v>96</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
+        <v>97</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <v>98</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
+        <v>99</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <v>100</v>
+      </c>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <v>101</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <v>102</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="17">
+        <v>103</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="17">
+        <v>104</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"fail"</formula>
@@ -1992,6 +3543,6 @@
     <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYU\Documents\YR3 Term1\IS Application Project\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{871B098A-0F05-4698-9EB3-056CE6086646}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="174">
   <si>
     <t>S/N</t>
   </si>
@@ -703,11 +702,26 @@
 Tutor Email: shawn@steppingstones.com.sg
 Tutor Age: </t>
   </si>
+  <si>
+    <t>Delete Student (Web)</t>
+  </si>
+  <si>
+    <t>Verify that all the data related to student will be deleted from database</t>
+  </si>
+  <si>
+    <t>Click Rubbish Bin Icon on selected student</t>
+  </si>
+  <si>
+    <t>No inputs</t>
+  </si>
+  <si>
+    <t>Student Deleted successfully and display message "Deleted Student record successfully"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -876,22 +890,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -937,9 +940,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,27 +1279,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1939,27 +1939,27 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>62</v>
@@ -1968,7 +1968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1976,28 +1976,28 @@
         <v>61</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2005,19 +2005,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>69</v>
+        <v>17</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>67</v>
@@ -2026,7 +2026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2036,14 +2036,14 @@
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>71</v>
+      <c r="D29" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>76</v>
@@ -2055,63 +2055,65 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>65</v>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
+      <c r="B31" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2119,26 +2121,26 @@
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>77</v>
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2146,10 +2148,10 @@
         <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>82</v>
@@ -2165,36 +2167,34 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2202,26 +2202,28 @@
         <v>105</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>111</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>112</v>
@@ -2248,7 +2250,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2256,13 +2258,13 @@
         <v>105</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>114</v>
@@ -2275,7 +2277,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2286,10 +2288,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>114</v>
@@ -2302,7 +2304,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2310,13 +2312,13 @@
         <v>105</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>114</v>
@@ -2329,7 +2331,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2337,13 +2339,13 @@
         <v>105</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>114</v>
@@ -2356,7 +2358,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2364,13 +2366,13 @@
         <v>105</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>114</v>
@@ -2383,7 +2385,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2391,13 +2393,13 @@
         <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>114</v>
@@ -2410,7 +2412,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2421,10 +2423,10 @@
         <v>126</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>114</v>
@@ -2437,7 +2439,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2448,10 +2450,10 @@
         <v>126</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>114</v>
@@ -2464,7 +2466,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2475,10 +2477,10 @@
         <v>126</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>114</v>
@@ -2491,7 +2493,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2502,10 +2504,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>114</v>
@@ -2518,7 +2520,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2529,10 +2531,10 @@
         <v>126</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>114</v>
@@ -2545,62 +2547,62 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <v>48</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="H49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -2610,24 +2612,24 @@
         <v>145</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -2637,7 +2639,7 @@
         <v>145</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>151</v>
@@ -2651,74 +2653,74 @@
       <c r="H51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <v>52</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="H53" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>112</v>
@@ -2732,23 +2734,23 @@
       <c r="H54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="18"/>
-    </row>
-    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>156</v>
@@ -2759,23 +2761,23 @@
       <c r="H55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>156</v>
@@ -2786,23 +2788,23 @@
       <c r="H56" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>156</v>
@@ -2813,23 +2815,23 @@
       <c r="H57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>156</v>
@@ -2840,23 +2842,23 @@
       <c r="H58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>156</v>
@@ -2867,23 +2869,23 @@
       <c r="H59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>156</v>
@@ -2894,23 +2896,23 @@
       <c r="H60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>156</v>
@@ -2921,23 +2923,23 @@
       <c r="H61" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>156</v>
@@ -2948,23 +2950,23 @@
       <c r="H62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
-        <v>62</v>
-      </c>
-      <c r="B63" s="18" t="s">
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>156</v>
@@ -2975,553 +2977,580 @@
       <c r="H63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="B64" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="H65" s="11"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="B66" s="17"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3534,13 +3563,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D32" r:id="rId1"/>
+    <hyperlink ref="D33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYU\Documents\YR3 Term1\IS Application Project\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{486D4823-32EC-48F8-A571-0AA3DF8C2FE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -721,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1279,27 +1280,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1346,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1368,7 +1369,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1391,7 +1392,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1414,7 +1415,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1437,7 +1438,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1460,7 +1461,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1483,7 +1484,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1552,7 +1553,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1575,7 +1576,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1621,7 +1622,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1644,7 +1645,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1690,7 +1691,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1736,7 +1737,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2140,7 +2141,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2167,7 +2168,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2194,7 +2195,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2250,7 +2251,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2277,7 +2278,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2304,7 +2305,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2331,7 +2332,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2358,7 +2359,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2385,7 +2386,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2412,7 +2413,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2439,7 +2440,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2493,7 +2494,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2520,7 +2521,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2547,7 +2548,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2574,7 +2575,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2601,7 +2602,7 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2628,7 +2629,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2655,7 +2656,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2682,7 +2683,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2709,7 +2710,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2763,7 +2764,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2790,7 +2791,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2817,7 +2818,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2844,7 +2845,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2898,7 +2899,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2925,7 +2926,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2952,7 +2953,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2979,7 +2980,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3019,7 +3020,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3032,7 +3033,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3045,7 +3046,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3058,7 +3059,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3071,7 +3072,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3084,7 +3085,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3097,7 +3098,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3110,7 +3111,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3123,7 +3124,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3149,7 +3150,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3162,7 +3163,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3175,7 +3176,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3188,7 +3189,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3201,7 +3202,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3214,7 +3215,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3253,7 +3254,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3266,7 +3267,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3279,7 +3280,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3318,7 +3319,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3331,7 +3332,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3344,7 +3345,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3370,7 +3371,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3383,7 +3384,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3396,7 +3397,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3409,7 +3410,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3422,7 +3423,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3448,7 +3449,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3474,7 +3475,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3487,7 +3488,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3500,7 +3501,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3513,7 +3514,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3526,7 +3527,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3539,7 +3540,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3563,13 +3564,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D32" r:id="rId1"/>
-    <hyperlink ref="D33" r:id="rId2"/>
+    <hyperlink ref="D32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYU\Documents\YR3 Term1\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{486D4823-32EC-48F8-A571-0AA3DF8C2FE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF828B0B-EF2F-4FDC-A23E-400758C1A437}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="228">
   <si>
     <t>S/N</t>
   </si>
@@ -191,9 +192,6 @@
   </si>
   <si>
     <t>The tutor should be removed from the database</t>
-  </si>
-  <si>
-    <t>Sign Ups</t>
   </si>
   <si>
     <t>Verify that when all the neccessary information are filled in, the admin user would be able to successfully create the Student record in the database</t>
@@ -718,16 +716,232 @@
   <si>
     <t>Student Deleted successfully and display message "Deleted Student record successfully"</t>
   </si>
+  <si>
+    <t>Student Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Student </t>
+  </si>
+  <si>
+    <t>Create Tutor</t>
+  </si>
+  <si>
+    <t>Delete Tutor</t>
+  </si>
+  <si>
+    <t>Update Tutor</t>
+  </si>
+  <si>
+    <t>Create Tuition Grade</t>
+  </si>
+  <si>
+    <t>Failed to create grade</t>
+  </si>
+  <si>
+    <t>Validating the field before create grade</t>
+  </si>
+  <si>
+    <t>Input the information as specified into the corresponding fields and click Create Grade</t>
+  </si>
+  <si>
+    <t>Error Message Display "The grade created for this class can only be English"</t>
+  </si>
+  <si>
+    <t>Left Grade empty</t>
+  </si>
+  <si>
+    <t>Select class:  -LHRRS0ATm04Hiarglhj (English) 
+Output lists of students in that class (Jimmy, Jenny)
+Select Examination: CA1
+Select Subject: English
+Select Location: Center
+Grade: Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
+Select Examination: CA1
+Select Subject: Chemistry
+Select Location: Center
+Grade: 88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
+Select Examination: CA1
+Select Subject: English
+Select Location: Center
+Grade: 1000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
+Select Examination: CA1
+Select Subject: English
+Select Location: Center
+Grade: 88
+</t>
+  </si>
+  <si>
+    <t>Validating duplicate data before create grade</t>
+  </si>
+  <si>
+    <t>The CA1 grade for English is being created before however input the Examination field as CA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to create grade with errror message, pls enter valid grade </t>
+  </si>
+  <si>
+    <t>Failed to create grade with errror message, pls select location, subject, examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
+Select Examination: Select Examination
+Select Subject: Select Subject
+Select Location: Select Location
+Grade: 88
+</t>
+  </si>
+  <si>
+    <t>Failed to create grade with errror message, CA1 grade already exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
+Select Examination: SA2
+Select Subject: English
+Select Location: Center
+Grade: 88
+</t>
+  </si>
+  <si>
+    <t>Grade created successfully</t>
+  </si>
+  <si>
+    <t>Update Grade</t>
+  </si>
+  <si>
+    <t>StudentID: -</t>
+  </si>
+  <si>
+    <t>Doesn't input anything at StudentID field</t>
+  </si>
+  <si>
+    <t>Display message to input studentID</t>
+  </si>
+  <si>
+    <t>Retrieve Grade</t>
+  </si>
+  <si>
+    <t>Input all the neccessary information with correct data</t>
+  </si>
+  <si>
+    <t>StudentID: G1234567L</t>
+  </si>
+  <si>
+    <t>Input the information as specified into the corresponding fields and click Retrieve</t>
+  </si>
+  <si>
+    <t>Display specific student's grades</t>
+  </si>
+  <si>
+    <t>Redirect to another page to add info</t>
+  </si>
+  <si>
+    <t>Validating the field before update grade</t>
+  </si>
+  <si>
+    <t>Subject: Select Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dropdown of subjets should only be the subjects that student is taking currently. For studentID G1234567L (Jimmy Lee) is enrolled in English and Add-Maths) </t>
+  </si>
+  <si>
+    <t>If the dropdown is not English and Add-Maths only then it is wrong else success</t>
+  </si>
+  <si>
+    <t>Validating the data before update grade</t>
+  </si>
+  <si>
+    <t>Subject: Select Subject
+Level: Select Assessment Type
+Grade: -</t>
+  </si>
+  <si>
+    <t>Input the information as specified into the corresponding fields and click Update</t>
+  </si>
+  <si>
+    <t>Display all error messages. 
+Pls select subject!
+Pls Select Assessment Type!
+Invalid Grade!</t>
+  </si>
+  <si>
+    <t>Subject: Select Subject
+Level: Select Level</t>
+  </si>
+  <si>
+    <t>Input the information as specified into the corresponding fields and click Save</t>
+  </si>
+  <si>
+    <t>Display all error messages. 
+Pls select subject! 
+Pls select level!</t>
+  </si>
+  <si>
+    <t>Create Schedule</t>
+  </si>
+  <si>
+    <t>Create schedule successfully</t>
+  </si>
+  <si>
+    <t>Able to save 2 classes with same date/time</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: P3
+Time: 8:30-10:00 20 Aug 1018</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: P4
+Time: 8:30-10:00 20 Aug 1018</t>
+  </si>
+  <si>
+    <t>Update Schedule</t>
+  </si>
+  <si>
+    <t>Able to update the</t>
+  </si>
+  <si>
+    <t>Click Edit Icon on specific time and change date time</t>
+  </si>
+  <si>
+    <t>Update schedule successfully</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: P4
+Time: 8:30-10:00 23 Aug 1018</t>
+  </si>
+  <si>
+    <t>Create Grade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,13 +1109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -913,28 +1127,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -946,11 +1160,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1283,24 +1546,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1589,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1346,7 +1609,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1369,7 +1632,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1392,7 +1655,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1415,7 +1678,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1438,7 +1701,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1461,7 +1724,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1484,7 +1747,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1507,7 +1770,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1530,7 +1793,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1553,7 +1816,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1576,7 +1839,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1599,7 +1862,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1622,7 +1885,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1645,7 +1908,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1668,7 +1931,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1691,7 +1954,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1714,7 +1977,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1728,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>51</v>
@@ -1737,253 +2000,253 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
@@ -1992,1022 +2255,1022 @@
         <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="I30" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="I31" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="H35" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="G36" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="F37" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="F39" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="F41" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="F43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="F46" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="F50" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="G50" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="D51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="F51" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="D52" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="G53" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="F54" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="F55" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="F57" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3020,7 +3283,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3033,7 +3296,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3046,7 +3309,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3059,7 +3322,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3072,7 +3335,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3085,7 +3348,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3098,7 +3361,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3111,7 +3374,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3124,7 +3387,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3137,7 +3400,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3150,7 +3413,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3163,7 +3426,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3176,7 +3439,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3189,7 +3452,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3202,7 +3465,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3215,7 +3478,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3228,7 +3491,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3241,7 +3504,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3254,7 +3517,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3267,7 +3530,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3280,7 +3543,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3293,7 +3556,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3306,7 +3569,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3319,7 +3582,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3332,7 +3595,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3345,7 +3608,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3358,7 +3621,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3371,7 +3634,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3384,7 +3647,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3397,7 +3660,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3410,7 +3673,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3423,7 +3686,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3436,7 +3699,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3449,7 +3712,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3462,7 +3725,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3475,7 +3738,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3488,7 +3751,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3501,7 +3764,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3514,7 +3777,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3527,7 +3790,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3540,7 +3803,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3554,12 +3817,12 @@
       <c r="I106" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3575,4 +3838,2045 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5155472-66AF-4323-ACD5-D08CB3B87B8B}">
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6F6142C4-D9FC-4FFF-ABCD-0B9CD32F1EFD}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYU\Documents\YR3 Term1\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiXin\Documents\FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF828B0B-EF2F-4FDC-A23E-400758C1A437}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B021D-402E-4FD3-A61D-89F43547F352}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="40" windowWidth="25750" windowHeight="11590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="249">
   <si>
     <t>S/N</t>
   </si>
@@ -909,21 +909,112 @@
     <t>Update Schedule</t>
   </si>
   <si>
-    <t>Able to update the</t>
-  </si>
-  <si>
-    <t>Click Edit Icon on specific time and change date time</t>
-  </si>
-  <si>
     <t>Update schedule successfully</t>
   </si>
   <si>
+    <t>Create Grade</t>
+  </si>
+  <si>
+    <t>Able to update schedule with all the correct input fields</t>
+  </si>
+  <si>
+    <t>Unable to update schedule with unselected subject field</t>
+  </si>
+  <si>
+    <t>Failure to update schedule with error message "Please select Subject" displayed</t>
+  </si>
+  <si>
+    <t>Unable to update schedule with unselected level field</t>
+  </si>
+  <si>
+    <t>Failure to update schedule with error message "Please select Level" displayed</t>
+  </si>
+  <si>
     <t>Subject: English
-Level: P4
-Time: 8:30-10:00 23 Aug 1018</t>
-  </si>
-  <si>
-    <t>Create Grade</t>
+Level: P1
+Day: Mon
+Start Time: 12
+End Time: 2
+Tutor Assigned: Irene</t>
+  </si>
+  <si>
+    <t>Subject: 
+Level: P1
+Day: Mon
+Start Time: 12
+End Time: 2
+Tutor Assigned: Irene</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: 
+Day: Mon
+Start Time: 12
+End Time: 2
+Tutor Assigned: Irene</t>
+  </si>
+  <si>
+    <t>Unable to update schedule with unselected day field</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: P1
+Day:
+Start Time: 12
+End Time: 2
+Tutor Assigned: Irene</t>
+  </si>
+  <si>
+    <t>Unable to update schedule with unselected start time field</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: P1
+Day: Mon
+Start Time: 
+End Time: 2
+Tutor Assigned: Irene</t>
+  </si>
+  <si>
+    <t>Unable to update schedule with unselected end time field</t>
+  </si>
+  <si>
+    <t>Subject: English
+Level: P1
+Day: Mon
+Start Time: 12 
+End Time: 
+Tutor Assigned: Irene</t>
+  </si>
+  <si>
+    <t>Select the corresponding fields into the form and click update schedule</t>
+  </si>
+  <si>
+    <t>Failure to update schedule with error message "Please select day" displayed</t>
+  </si>
+  <si>
+    <t>Failure to update schedule with error message "Please select start time" displayed</t>
+  </si>
+  <si>
+    <t>Failure to update schedule with error message "Please select end time" displayed</t>
+  </si>
+  <si>
+    <t>Schedule updated successfully</t>
+  </si>
+  <si>
+    <t>Error message "Please select subject displayed"</t>
+  </si>
+  <si>
+    <t>Error message "Please select level displayed"</t>
+  </si>
+  <si>
+    <t>Error message "Please select day displayed"</t>
+  </si>
+  <si>
+    <t>Error message "Please select start time displayed"</t>
+  </si>
+  <si>
+    <t>Error message "Please select end time displayed"</t>
   </si>
 </sst>
 </file>
@@ -1173,27 +1264,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1547,20 +1618,20 @@
   <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1680,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1632,7 +1703,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1655,7 +1726,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1678,7 +1749,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1701,7 +1772,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1724,7 +1795,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1747,7 +1818,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1770,7 +1841,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1793,7 +1864,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1816,7 +1887,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1839,7 +1910,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1862,7 +1933,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1885,7 +1956,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1908,7 +1979,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1931,7 +2002,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1954,7 +2025,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1977,7 +2048,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2000,7 +2071,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2029,7 +2100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2058,7 +2129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2087,7 +2158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2116,7 +2187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2145,7 +2216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2174,7 +2245,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2203,7 +2274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2232,7 +2303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2261,7 +2332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2290,7 +2361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2319,7 +2390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2348,7 +2419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2377,7 +2448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2404,7 +2475,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2431,7 +2502,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2458,7 +2529,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2487,7 +2558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2514,7 +2585,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2541,7 +2612,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2568,7 +2639,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2595,7 +2666,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2622,7 +2693,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2649,7 +2720,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2676,7 +2747,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2703,7 +2774,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2730,7 +2801,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2757,7 +2828,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2784,7 +2855,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2811,7 +2882,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2838,7 +2909,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2865,7 +2936,7 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2892,7 +2963,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2919,7 +2990,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2946,7 +3017,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2973,7 +3044,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3000,7 +3071,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3027,7 +3098,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3054,7 +3125,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3081,7 +3152,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3108,7 +3179,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3135,7 +3206,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3162,7 +3233,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3189,7 +3260,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3216,7 +3287,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3243,7 +3314,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3270,7 +3341,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3283,7 +3354,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3296,7 +3367,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3309,7 +3380,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3322,7 +3393,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3335,7 +3406,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3348,7 +3419,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3361,7 +3432,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3374,7 +3445,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3387,7 +3458,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3400,7 +3471,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3413,7 +3484,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3426,7 +3497,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3439,7 +3510,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3452,7 +3523,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3465,7 +3536,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3478,7 +3549,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3491,7 +3562,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3504,7 +3575,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3517,7 +3588,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3530,7 +3601,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3543,7 +3614,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3556,7 +3627,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3569,7 +3640,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3582,7 +3653,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3595,7 +3666,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3608,7 +3679,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3621,7 +3692,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3634,7 +3705,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3647,7 +3718,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3660,7 +3731,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3673,7 +3744,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3686,7 +3757,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3699,7 +3770,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3712,7 +3783,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3725,7 +3796,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3738,7 +3809,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3751,7 +3822,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3764,7 +3835,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3777,7 +3848,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3790,7 +3861,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3803,7 +3874,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3819,10 +3890,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3845,24 +3916,24 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72:H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3914,7 +3985,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3937,7 +4008,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3960,7 +4031,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3983,7 +4054,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4006,7 +4077,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4029,7 +4100,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4052,7 +4123,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4075,7 +4146,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4098,7 +4169,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4121,7 +4192,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4144,7 +4215,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4167,7 +4238,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4190,7 +4261,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4213,7 +4284,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4236,7 +4307,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4259,7 +4330,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4282,7 +4353,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4305,7 +4376,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4328,7 +4399,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4351,7 +4422,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4374,7 +4445,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4397,7 +4468,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4420,7 +4491,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4443,7 +4514,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4466,7 +4537,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4489,7 +4560,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4512,7 +4583,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4535,7 +4606,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4558,7 +4629,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4581,7 +4652,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4604,7 +4675,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4627,7 +4698,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4650,7 +4721,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4673,7 +4744,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4696,7 +4767,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4719,7 +4790,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4742,7 +4813,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4765,7 +4836,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -4788,7 +4859,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4811,7 +4882,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4834,7 +4905,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4857,7 +4928,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -4880,7 +4951,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -4903,7 +4974,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4926,7 +4997,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4949,7 +5020,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4972,7 +5043,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4995,7 +5066,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -5018,7 +5089,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -5041,7 +5112,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -5064,7 +5135,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -5087,7 +5158,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -5110,7 +5181,7 @@
       <c r="H54" s="11"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -5133,7 +5204,7 @@
       <c r="H55" s="11"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -5156,7 +5227,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -5179,12 +5250,12 @@
       <c r="H57" s="11"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>180</v>
@@ -5202,12 +5273,12 @@
       <c r="H58" s="13"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>180</v>
@@ -5225,12 +5296,12 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>180</v>
@@ -5248,12 +5319,12 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>188</v>
@@ -5271,12 +5342,12 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>201</v>
@@ -5294,7 +5365,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -5317,7 +5388,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -5340,7 +5411,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -5363,7 +5434,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -5386,7 +5457,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -5409,7 +5480,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5432,7 +5503,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5455,7 +5526,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5478,7 +5549,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -5501,7 +5572,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -5509,100 +5580,174 @@
         <v>222</v>
       </c>
       <c r="C72" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="G72" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="B73" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="B74" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="B75" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="B76" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="B77" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -5615,7 +5760,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -5628,7 +5773,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -5641,7 +5786,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -5654,7 +5799,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -5667,7 +5812,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -5680,7 +5825,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -5693,7 +5838,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -5706,7 +5851,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -5719,7 +5864,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -5732,7 +5877,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -5745,7 +5890,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -5758,7 +5903,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -5771,7 +5916,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -5784,7 +5929,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -5797,7 +5942,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -5810,7 +5955,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -5823,7 +5968,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -5836,7 +5981,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -5849,7 +5994,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -5864,10 +6009,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiXin\Documents\FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B021D-402E-4FD3-A61D-89F43547F352}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80950B-C86E-4D9F-9542-771309DD8708}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="40" windowWidth="25750" windowHeight="11590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="260">
   <si>
     <t>S/N</t>
   </si>
@@ -1015,6 +1015,39 @@
   </si>
   <si>
     <t>Error message "Please select end time displayed"</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>Users who provided the valid email would be able to receive a reset password email</t>
+  </si>
+  <si>
+    <t>Email: irene.ng.1997@steppingstones.com.sg</t>
+  </si>
+  <si>
+    <t>Enter the email into the email field</t>
+  </si>
+  <si>
+    <t>Email Sent Successfully</t>
+  </si>
+  <si>
+    <t>Error Message displayed</t>
+  </si>
+  <si>
+    <t>Users who left the email empty would not be able to receive a reset password email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
+  </si>
+  <si>
+    <t>Error Message "Please enter a valid email" to be displayed</t>
+  </si>
+  <si>
+    <t>Users who entered an invalid email would not be able to receive a reset password email</t>
+  </si>
+  <si>
+    <t>Email: irene.ng@steppingstones.com.sg</t>
   </si>
 </sst>
 </file>
@@ -3913,11 +3946,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5155472-66AF-4323-ACD5-D08CB3B87B8B}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:CV96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72:H77"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3933,7 +3966,7 @@
     <col min="9" max="9" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3962,30 +3995,309 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="5">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="L2" s="5">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="M2" s="5">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5">
+        <v>19</v>
+      </c>
+      <c r="T2" s="5">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5">
+        <v>21</v>
+      </c>
+      <c r="V2" s="5">
+        <v>22</v>
+      </c>
+      <c r="W2" s="5">
+        <v>23</v>
+      </c>
+      <c r="X2" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>52</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>53</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>54</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>55</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="5">
+        <v>57</v>
+      </c>
+      <c r="BF2" s="5">
+        <v>58</v>
+      </c>
+      <c r="BG2" s="5">
+        <v>59</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>60</v>
+      </c>
+      <c r="BI2" s="5">
+        <v>61</v>
+      </c>
+      <c r="BJ2" s="5">
+        <v>62</v>
+      </c>
+      <c r="BK2" s="5">
+        <v>63</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>64</v>
+      </c>
+      <c r="BM2" s="5">
+        <v>65</v>
+      </c>
+      <c r="BN2" s="5">
+        <v>66</v>
+      </c>
+      <c r="BO2" s="5">
+        <v>67</v>
+      </c>
+      <c r="BP2" s="5">
+        <v>68</v>
+      </c>
+      <c r="BQ2" s="5">
+        <v>69</v>
+      </c>
+      <c r="BR2" s="5">
+        <v>70</v>
+      </c>
+      <c r="BS2" s="5">
+        <v>71</v>
+      </c>
+      <c r="BT2" s="5">
+        <v>72</v>
+      </c>
+      <c r="BU2" s="5">
+        <v>73</v>
+      </c>
+      <c r="BV2" s="5">
+        <v>74</v>
+      </c>
+      <c r="BW2" s="5">
+        <v>75</v>
+      </c>
+      <c r="BX2" s="5">
+        <v>76</v>
+      </c>
+      <c r="BY2" s="5">
+        <v>77</v>
+      </c>
+      <c r="BZ2" s="5">
+        <v>78</v>
+      </c>
+      <c r="CA2" s="5">
+        <v>79</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>80</v>
+      </c>
+      <c r="CC2" s="5">
+        <v>81</v>
+      </c>
+      <c r="CD2" s="5">
+        <v>82</v>
+      </c>
+      <c r="CE2" s="5">
+        <v>83</v>
+      </c>
+      <c r="CF2" s="5">
+        <v>84</v>
+      </c>
+      <c r="CG2" s="5">
+        <v>85</v>
+      </c>
+      <c r="CH2" s="5">
+        <v>86</v>
+      </c>
+      <c r="CI2" s="5">
+        <v>87</v>
+      </c>
+      <c r="CJ2" s="5">
+        <v>88</v>
+      </c>
+      <c r="CK2" s="5">
+        <v>89</v>
+      </c>
+      <c r="CL2" s="5">
+        <v>90</v>
+      </c>
+      <c r="CM2" s="5">
+        <v>91</v>
+      </c>
+      <c r="CN2" s="5">
+        <v>92</v>
+      </c>
+      <c r="CO2" s="5">
+        <v>93</v>
+      </c>
+      <c r="CP2" s="5">
+        <v>94</v>
+      </c>
+      <c r="CQ2" s="5">
+        <v>95</v>
+      </c>
+      <c r="CR2" s="5">
+        <v>96</v>
+      </c>
+      <c r="CS2" s="5">
+        <v>97</v>
+      </c>
+      <c r="CT2" s="5">
+        <v>98</v>
+      </c>
+      <c r="CU2" s="5">
+        <v>99</v>
+      </c>
+      <c r="CV2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4008,7 +4320,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4031,7 +4343,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4054,7 +4366,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4077,7 +4389,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4100,7 +4412,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4123,7 +4435,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:100" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4146,7 +4458,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:100" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4169,7 +4481,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:100" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4192,7 +4504,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:100" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4215,139 +4527,139 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:100" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:100" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:100" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:100" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -4355,68 +4667,68 @@
     </row>
     <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -4424,22 +4736,22 @@
     </row>
     <row r="22" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -4447,134 +4759,134 @@
     </row>
     <row r="23" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>113</v>
@@ -4585,19 +4897,19 @@
     </row>
     <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>113</v>
@@ -4606,21 +4918,21 @@
       <c r="H29" s="11"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>113</v>
@@ -4631,19 +4943,19 @@
     </row>
     <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>113</v>
@@ -4652,9 +4964,9 @@
       <c r="H31" s="11"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>175</v>
@@ -4663,10 +4975,10 @@
         <v>121</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>113</v>
@@ -4677,19 +4989,19 @@
     </row>
     <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>113</v>
@@ -4700,19 +5012,19 @@
     </row>
     <row r="34" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>113</v>
@@ -4723,7 +5035,7 @@
     </row>
     <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>175</v>
@@ -4732,10 +5044,10 @@
         <v>125</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>113</v>
@@ -4744,9 +5056,9 @@
       <c r="H35" s="11"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>175</v>
@@ -4755,10 +5067,10 @@
         <v>125</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>113</v>
@@ -4769,7 +5081,7 @@
     </row>
     <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>175</v>
@@ -4778,10 +5090,10 @@
         <v>125</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>113</v>
@@ -4790,9 +5102,9 @@
       <c r="H37" s="11"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>175</v>
@@ -4801,10 +5113,10 @@
         <v>125</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>113</v>
@@ -4815,180 +5127,180 @@
     </row>
     <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="D39" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="11"/>
       <c r="H43" s="14"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>155</v>
@@ -4999,19 +5311,19 @@
     </row>
     <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>155</v>
@@ -5020,21 +5332,21 @@
       <c r="H47" s="11"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>155</v>
@@ -5045,19 +5357,19 @@
     </row>
     <row r="49" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>155</v>
@@ -5066,21 +5378,21 @@
       <c r="H49" s="11"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>155</v>
@@ -5091,19 +5403,19 @@
     </row>
     <row r="51" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>177</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>155</v>
@@ -5114,7 +5426,7 @@
     </row>
     <row r="52" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>177</v>
@@ -5123,10 +5435,10 @@
         <v>125</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>155</v>
@@ -5135,9 +5447,9 @@
       <c r="H52" s="11"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>177</v>
@@ -5146,10 +5458,10 @@
         <v>125</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>155</v>
@@ -5160,7 +5472,7 @@
     </row>
     <row r="54" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>177</v>
@@ -5169,10 +5481,10 @@
         <v>125</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>155</v>
@@ -5181,78 +5493,78 @@
       <c r="H54" s="11"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>155</v>
+      <c r="D55" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>155</v>
+        <v>224</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="13"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>183</v>
+        <v>224</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
     <row r="58" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>224</v>
@@ -5261,105 +5573,105 @@
         <v>180</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="13"/>
+        <v>191</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>224</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>180</v>
+      <c r="C60" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>191</v>
+      <c r="F60" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>194</v>
+      <c r="D62" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -5367,10 +5679,10 @@
     </row>
     <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>125</v>
@@ -5390,10 +5702,10 @@
     </row>
     <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>201</v>
@@ -5402,102 +5714,102 @@
         <v>202</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>125</v>
+      <c r="C65" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>201</v>
+      <c r="C66" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>212</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -5505,94 +5817,102 @@
     </row>
     <row r="69" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>215</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>215</v>
+        <v>230</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+        <v>223</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>215</v>
+        <v>231</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+        <v>227</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I71" s="17"/>
     </row>
     <row r="72" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>239</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H72" s="17" t="s">
         <v>61</v>
@@ -5601,25 +5921,25 @@
     </row>
     <row r="73" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>239</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H73" s="17" t="s">
         <v>61</v>
@@ -5628,25 +5948,25 @@
     </row>
     <row r="74" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>239</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H74" s="17" t="s">
         <v>61</v>
@@ -5655,101 +5975,117 @@
     </row>
     <row r="75" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>239</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H75" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H76" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="17"/>
-    </row>
-    <row r="77" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H77" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <v>77</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -5762,7 +6098,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -5775,7 +6111,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -5788,7 +6124,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -5801,7 +6137,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -5814,7 +6150,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -5827,7 +6163,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -5840,7 +6176,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -5853,7 +6189,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -5866,7 +6202,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -5879,7 +6215,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -5892,7 +6228,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -5905,7 +6241,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -5918,7 +6254,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -5931,7 +6267,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -5944,7 +6280,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -5957,7 +6293,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -5970,7 +6306,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -5980,32 +6316,6 @@
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiXin\Documents\FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80950B-C86E-4D9F-9542-771309DD8708}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{371FD9C2-2119-46B4-A1DD-A58644AE9C39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="40" windowWidth="25750" windowHeight="11590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="25755" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="262">
   <si>
     <t>S/N</t>
   </si>
@@ -744,9 +744,6 @@
     <t>Input the information as specified into the corresponding fields and click Create Grade</t>
   </si>
   <si>
-    <t>Error Message Display "The grade created for this class can only be English"</t>
-  </si>
-  <si>
     <t>Left Grade empty</t>
   </si>
   <si>
@@ -760,14 +757,6 @@
   <si>
     <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
 Select Examination: CA1
-Select Subject: Chemistry
-Select Location: Center
-Grade: 88
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
-Select Examination: CA1
 Select Subject: English
 Select Location: Center
 Grade: 1000
@@ -788,9 +777,6 @@
     <t>The CA1 grade for English is being created before however input the Examination field as CA1</t>
   </si>
   <si>
-    <t xml:space="preserve">Failed to create grade with errror message, pls enter valid grade </t>
-  </si>
-  <si>
     <t>Failed to create grade with errror message, pls select location, subject, examination</t>
   </si>
   <si>
@@ -802,9 +788,6 @@
 </t>
   </si>
   <si>
-    <t>Failed to create grade with errror message, CA1 grade already exist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select class:  -LHRRS0ATm04Hiarglhj (English) 
 Select Examination: SA2
 Select Subject: English
@@ -1049,12 +1032,30 @@
   <si>
     <t>Email: irene.ng@steppingstones.com.sg</t>
   </si>
+  <si>
+    <t>Parse exception</t>
+  </si>
+  <si>
+    <t>Deleting tutor</t>
+  </si>
+  <si>
+    <t>Click remove</t>
+  </si>
+  <si>
+    <t>Clicking on "yes, remove"</t>
+  </si>
+  <si>
+    <t>Failed to create grade with error message,"Invalid grade"</t>
+  </si>
+  <si>
+    <t>Failed to create grade with errror message, grade already exist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1106,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1230,10 +1237,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1287,15 +1295,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0B9887A6-7CC9-441C-B771-FC27E966D64E}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1655,19 +1688,19 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1746,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1736,7 +1769,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1759,7 +1792,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1782,7 +1815,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1805,7 +1838,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1828,7 +1861,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1851,7 +1884,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1874,7 +1907,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1897,7 +1930,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1920,7 +1953,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1943,7 +1976,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1966,7 +1999,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1989,7 +2022,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2012,7 +2045,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2035,7 +2068,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2058,7 +2091,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2081,7 +2114,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2104,7 +2137,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2133,7 +2166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2162,7 +2195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2191,7 +2224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2220,7 +2253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2249,7 +2282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2278,7 +2311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2307,7 +2340,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2336,7 +2369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2365,7 +2398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2394,7 +2427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2423,7 +2456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2452,7 +2485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2481,7 +2514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2508,7 +2541,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2535,7 +2568,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2562,7 +2595,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2591,7 +2624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2618,7 +2651,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2645,7 +2678,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2672,7 +2705,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2699,7 +2732,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2726,7 +2759,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2753,7 +2786,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2780,7 +2813,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2807,7 +2840,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2834,7 +2867,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2861,7 +2894,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2888,7 +2921,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2915,7 +2948,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2942,7 +2975,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2969,7 +3002,7 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2996,7 +3029,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3023,7 +3056,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3050,7 +3083,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3077,7 +3110,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3104,7 +3137,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3131,7 +3164,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3158,7 +3191,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3185,7 +3218,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3212,7 +3245,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3239,7 +3272,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3266,7 +3299,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3293,7 +3326,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3320,7 +3353,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3347,7 +3380,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3374,7 +3407,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3387,7 +3420,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3400,7 +3433,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3413,7 +3446,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3426,7 +3459,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3439,7 +3472,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3452,7 +3485,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3465,7 +3498,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3478,7 +3511,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3491,7 +3524,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3504,7 +3537,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3517,7 +3550,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3530,7 +3563,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3543,7 +3576,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3556,7 +3589,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3569,7 +3602,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3582,7 +3615,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3595,7 +3628,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3608,7 +3641,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3621,7 +3654,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3634,7 +3667,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3647,7 +3680,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3660,7 +3693,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3673,7 +3706,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3686,7 +3719,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3699,7 +3732,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3712,7 +3745,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3725,7 +3758,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3738,7 +3771,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3751,7 +3784,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3764,7 +3797,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3777,7 +3810,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3790,7 +3823,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3803,7 +3836,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3816,7 +3849,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3829,7 +3862,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3842,7 +3875,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3855,7 +3888,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3868,7 +3901,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3881,7 +3914,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3894,7 +3927,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3907,7 +3940,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3946,27 +3979,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5155472-66AF-4323-ACD5-D08CB3B87B8B}">
-  <dimension ref="A1:CV96"/>
+  <dimension ref="A1:CV95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +4028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4297,7 +4330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:100" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4320,7 +4353,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:100" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4343,7 +4376,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:100" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4366,7 +4399,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:100" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4389,7 +4422,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:100" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4412,7 +4445,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:100" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4435,7 +4468,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:100" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:100" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4458,7 +4491,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:100" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4481,7 +4514,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:100" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4504,7 +4537,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:100" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4527,7 +4560,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:100" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:100" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>14</v>
       </c>
@@ -4550,7 +4583,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:100" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:100" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -4573,7 +4606,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:100" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:100" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>16</v>
       </c>
@@ -4596,7 +4629,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:100" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:100" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>17</v>
       </c>
@@ -4619,7 +4652,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -4642,7 +4675,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -4665,7 +4698,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>20</v>
       </c>
@@ -4688,7 +4721,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>21</v>
       </c>
@@ -4711,7 +4744,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>22</v>
       </c>
@@ -4734,7 +4767,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>23</v>
       </c>
@@ -4757,7 +4790,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>24</v>
       </c>
@@ -4780,7 +4813,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>25</v>
       </c>
@@ -4803,826 +4836,962 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>26</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="G25" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>27</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>28</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>29</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>30</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>31</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>32</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>33</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>34</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>35</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>36</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>37</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="G36" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+    <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
         <v>38</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="G37" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>39</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>40</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>61</v>
+      </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>41</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="C40" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="G40" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>42</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="B41" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="B42" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>44</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="14"/>
+      <c r="C43" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>45</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="11" t="s">
+      <c r="C44" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="C45" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>47</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="11" t="s">
+      <c r="C46" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>48</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="C47" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="G47" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>49</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="C48" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>50</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="C49" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="G49" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>51</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="11" t="s">
+      <c r="D50" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="G50" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>52</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="11" t="s">
+      <c r="D51" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="G51" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>53</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="D52" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G52" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>54</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="D53" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>55</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>56</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>183</v>
+        <v>220</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>57</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D56" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>181</v>
+      <c r="E56" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="13"/>
+        <v>261</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>58</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>59</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>191</v>
+        <v>196</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>60</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>61</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>195</v>
@@ -5631,459 +5800,429 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>62</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="17" t="s">
         <v>198</v>
       </c>
+      <c r="E61" s="23" t="s">
+        <v>208</v>
+      </c>
       <c r="F61" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>63</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E62" s="20" t="s">
         <v>203</v>
       </c>
+      <c r="E62" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="F62" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>64</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>125</v>
+        <v>192</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>65</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>66</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>67</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>206</v>
+        <v>213</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E66" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="F66" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>68</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+        <v>219</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>69</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>215</v>
+        <v>227</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+        <v>223</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>70</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>215</v>
+        <v>228</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>71</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H70" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>72</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H71" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>73</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>74</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G73" s="17" t="s">
+      <c r="B73" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="D73" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>75</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" s="17"/>
-    </row>
-    <row r="75" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="B74" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>76</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G75" s="17" t="s">
+      <c r="B75" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="H75" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75" s="17"/>
-    </row>
-    <row r="76" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F75" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>77</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>78</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>79</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -6096,7 +6235,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -6109,7 +6248,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>82</v>
       </c>
@@ -6122,7 +6261,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>83</v>
       </c>
@@ -6135,7 +6274,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>84</v>
       </c>
@@ -6148,7 +6287,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>85</v>
       </c>
@@ -6161,7 +6300,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>86</v>
       </c>
@@ -6174,7 +6313,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>87</v>
       </c>
@@ -6187,7 +6326,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>88</v>
       </c>
@@ -6200,7 +6339,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>89</v>
       </c>
@@ -6213,7 +6352,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>90</v>
       </c>
@@ -6226,7 +6365,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>91</v>
       </c>
@@ -6239,7 +6378,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>92</v>
       </c>
@@ -6252,7 +6391,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>93</v>
       </c>
@@ -6265,7 +6404,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>94</v>
       </c>
@@ -6278,7 +6417,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>95</v>
       </c>
@@ -6291,7 +6430,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>96</v>
       </c>
@@ -6303,19 +6442,6 @@
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="5">
-        <v>97</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEYU\Documents\YR3 Term1\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{371FD9C2-2119-46B4-A1DD-A58644AE9C39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C3232E7-2354-4946-BCED-A08BF16B2320}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25755" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="48" windowWidth="25752" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="262">
   <si>
     <t>S/N</t>
   </si>
@@ -1688,19 +1688,19 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -3982,24 +3982,24 @@
   <dimension ref="A1:CV95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:100" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:100" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:100" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:100" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:100" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:100" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:100" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:100" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>14</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:100" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:100" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>16</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:100" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>17</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -4671,11 +4671,15 @@
       <c r="F17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -4694,11 +4698,15 @@
       <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>20</v>
       </c>
@@ -4717,11 +4725,15 @@
       <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>21</v>
       </c>
@@ -4740,11 +4752,15 @@
       <c r="F20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>22</v>
       </c>
@@ -4763,11 +4779,15 @@
       <c r="F21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>23</v>
       </c>
@@ -4786,11 +4806,15 @@
       <c r="F22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>24</v>
       </c>
@@ -4809,11 +4833,15 @@
       <c r="F23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>25</v>
       </c>
@@ -4832,11 +4860,15 @@
       <c r="F24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>26</v>
       </c>
@@ -4863,7 +4895,7 @@
       </c>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>27</v>
       </c>
@@ -4890,7 +4922,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>28</v>
       </c>
@@ -4917,7 +4949,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>29</v>
       </c>
@@ -4944,7 +4976,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>30</v>
       </c>
@@ -4971,7 +5003,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>31</v>
       </c>
@@ -4998,7 +5030,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>32</v>
       </c>
@@ -5025,7 +5057,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>33</v>
       </c>
@@ -5052,7 +5084,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>34</v>
       </c>
@@ -5079,7 +5111,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>35</v>
       </c>
@@ -5106,7 +5138,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>36</v>
       </c>
@@ -5133,7 +5165,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>37</v>
       </c>
@@ -5160,7 +5192,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>38</v>
       </c>
@@ -5189,7 +5221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>39</v>
       </c>
@@ -5216,7 +5248,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>40</v>
       </c>
@@ -5243,7 +5275,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41</v>
       </c>
@@ -5270,7 +5302,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>42</v>
       </c>
@@ -5297,7 +5329,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43</v>
       </c>
@@ -5324,7 +5356,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>44</v>
       </c>
@@ -5351,7 +5383,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45</v>
       </c>
@@ -5378,7 +5410,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>46</v>
       </c>
@@ -5405,7 +5437,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>47</v>
       </c>
@@ -5432,7 +5464,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>48</v>
       </c>
@@ -5459,7 +5491,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>49</v>
       </c>
@@ -5486,7 +5518,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>50</v>
       </c>
@@ -5513,7 +5545,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>51</v>
       </c>
@@ -5540,7 +5572,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>52</v>
       </c>
@@ -5567,7 +5599,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>53</v>
       </c>
@@ -5596,7 +5628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>54</v>
       </c>
@@ -5623,7 +5655,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>55</v>
       </c>
@@ -5650,7 +5682,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>56</v>
       </c>
@@ -5677,7 +5709,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>57</v>
       </c>
@@ -5704,7 +5736,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -5731,7 +5763,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>59</v>
       </c>
@@ -5750,11 +5782,15 @@
       <c r="F58" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="G58" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>60</v>
       </c>
@@ -5773,11 +5809,15 @@
       <c r="F59" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="G59" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>61</v>
       </c>
@@ -5796,11 +5836,15 @@
       <c r="F60" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="G60" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>62</v>
       </c>
@@ -5819,11 +5863,15 @@
       <c r="F61" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="G61" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>63</v>
       </c>
@@ -5842,11 +5890,15 @@
       <c r="F62" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="G62" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>64</v>
       </c>
@@ -5865,11 +5917,15 @@
       <c r="F63" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="G63" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>65</v>
       </c>
@@ -5892,7 +5948,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>66</v>
       </c>
@@ -5915,7 +5971,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>67</v>
       </c>
@@ -5938,7 +5994,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>68</v>
       </c>
@@ -5965,7 +6021,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>69</v>
       </c>
@@ -5992,7 +6048,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>70</v>
       </c>
@@ -6019,7 +6075,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>71</v>
       </c>
@@ -6046,7 +6102,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>72</v>
       </c>
@@ -6073,7 +6129,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>73</v>
       </c>
@@ -6100,7 +6156,7 @@
       </c>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>74</v>
       </c>
@@ -6129,7 +6185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>75</v>
       </c>
@@ -6156,7 +6212,7 @@
       </c>
       <c r="I74" s="27"/>
     </row>
-    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>76</v>
       </c>
@@ -6183,7 +6239,7 @@
       </c>
       <c r="I75" s="27"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>77</v>
       </c>
@@ -6196,7 +6252,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>78</v>
       </c>
@@ -6209,7 +6265,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>79</v>
       </c>
@@ -6222,7 +6278,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>80</v>
       </c>
@@ -6235,7 +6291,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>81</v>
       </c>
@@ -6248,7 +6304,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>82</v>
       </c>
@@ -6261,7 +6317,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>83</v>
       </c>
@@ -6274,7 +6330,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>84</v>
       </c>
@@ -6287,7 +6343,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>85</v>
       </c>
@@ -6300,7 +6356,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>86</v>
       </c>
@@ -6313,7 +6369,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>87</v>
       </c>
@@ -6326,7 +6382,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>88</v>
       </c>
@@ -6339,7 +6395,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>89</v>
       </c>
@@ -6352,7 +6408,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>90</v>
       </c>
@@ -6365,7 +6421,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>91</v>
       </c>
@@ -6378,7 +6434,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>92</v>
       </c>
@@ -6391,7 +6447,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>93</v>
       </c>
@@ -6404,7 +6460,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>94</v>
       </c>
@@ -6417,7 +6473,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>95</v>
       </c>
@@ -6430,7 +6486,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>96</v>
       </c>

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiXin\Documents\FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515AFD88-CD0B-427F-B8CA-0BD7EB3CFF3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBE9D99E-641E-4BB4-83E6-15BB1837C1D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="50" windowWidth="25750" windowHeight="11590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="25755" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration 4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="375">
   <si>
     <t>S/N</t>
   </si>
@@ -948,16 +949,597 @@
   <si>
     <t>Failed to create grade with errror message, grade already exist</t>
   </si>
+  <si>
+    <t>Verify admin fields</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: adminadmin
+Role: admin</t>
+  </si>
+  <si>
+    <t>Input valid fields</t>
+  </si>
+  <si>
+    <t>Verify empty field</t>
+  </si>
+  <si>
+    <t>Username: blank
+Pwd: adminadmin
+Role: admin</t>
+  </si>
+  <si>
+    <t>Leave username blank</t>
+  </si>
+  <si>
+    <t>"The username is required and cannot be empty"</t>
+  </si>
+  <si>
+    <t>"The password is required and cannot be empty"</t>
+  </si>
+  <si>
+    <t>Leave password blank</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: blank
+Role: admin</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: adminadmin
+Role: blank</t>
+  </si>
+  <si>
+    <t>Leave role blank</t>
+  </si>
+  <si>
+    <t>"Select at least 1 role"</t>
+  </si>
+  <si>
+    <t>Login with admin credentials but change role to tutor/student/parent</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: adminadmin
+Role: parent</t>
+  </si>
+  <si>
+    <t>Changed role from admin to parent</t>
+  </si>
+  <si>
+    <t>"Invalid username or password. Try again"</t>
+  </si>
+  <si>
+    <t>Login with the wrong password for admin account</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: wasd1234567
+Role: admin</t>
+  </si>
+  <si>
+    <t>Changed password to wasd1234567 instead of adminadmin</t>
+  </si>
+  <si>
+    <t>Login with the wrong username for admin account</t>
+  </si>
+  <si>
+    <t>Username: randomuser
+Pwd: adminadmin
+Role: admin</t>
+  </si>
+  <si>
+    <t>Changed username to randomuser instead of admin</t>
+  </si>
+  <si>
+    <t>Create Branch</t>
+  </si>
+  <si>
+    <t>Branch Name: Bedok Branch
+Branch Address: 123 Bedok St
+Phone Number: 91234567
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>Successful Creation</t>
+  </si>
+  <si>
+    <t>Branch Name: blank
+Branch Address: 123 Bedok St
+Phone Number: 91234567
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>Leave branch name blank</t>
+  </si>
+  <si>
+    <t>"Please enter branch name"</t>
+  </si>
+  <si>
+    <t>Verify wrong field</t>
+  </si>
+  <si>
+    <t>Branch Name: Bedok Branch
+Branch Address: 123 Bedok St
+Phone Number: 9123456732
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>Change number to one not of Singapore standards.</t>
+  </si>
+  <si>
+    <t>"Please enter valid phone number"</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Email: maxlim@gmail.com
+Password: Generated
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: blank
+Email: maxlim@gmail.com
+Password: Generated
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Changed name to blank</t>
+  </si>
+  <si>
+    <t>"Please enter tutor name"</t>
+  </si>
+  <si>
+    <t>"Please enter valid email addres"</t>
+  </si>
+  <si>
+    <t>"Password cannot be empty"</t>
+  </si>
+  <si>
+    <t>Changed email address to invalid format, maxlim</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Email: maxlim@hot
+Password: Generated
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Changed email address to invalid format, maxlim@hot</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Email: maxlim
+Password: Generated
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Email: maxlim@gmail.com
+Password: blank
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Email: blank
+Password: Generated
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>"Enter Email Address"</t>
+  </si>
+  <si>
+    <t>Create Admin</t>
+  </si>
+  <si>
+    <t>"Please enter username"</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: blank
+Email: kanelam@gmail.com
+Password: Generated</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam@gmail.com
+Password: Generated</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: blank
+Password: Generated</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam@gmail.com
+Password: blank</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam
+Password: Generated</t>
+  </si>
+  <si>
+    <t>Changed email address to invalid format, kanelam</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam@gmail
+Password: Generated</t>
+  </si>
+  <si>
+    <t>Changed email address to invalid format, kanelam@gmail</t>
+  </si>
+  <si>
+    <t>Tutor Creation</t>
+  </si>
+  <si>
+    <t>Admin Creation</t>
+  </si>
+  <si>
+    <t>Branch Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Tutor </t>
+  </si>
+  <si>
+    <t>Verify that all the data related to tutor will be deleted from database</t>
+  </si>
+  <si>
+    <t>Click Rubbish Bin Icon on selected tutor, followed by "Yes, Remove"</t>
+  </si>
+  <si>
+    <t>Tutor Deleted successfully and display message "Deleted  Tutor record successfully"</t>
+  </si>
+  <si>
+    <t>Tutor Deleted successfully and display message "Deleted Tutor record successfully"</t>
+  </si>
+  <si>
+    <t>Verify that data updated is reflected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+NRIC: S8678444D
+</t>
+  </si>
+  <si>
+    <t>Added nric to be S8678444D</t>
+  </si>
+  <si>
+    <t>"Success. Tutor record updated successfully"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+NRIC: S999D
+</t>
+  </si>
+  <si>
+    <t>Added nric to be S999D</t>
+  </si>
+  <si>
+    <t>"Please input valid NRIC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+Phone No: 91234567
+</t>
+  </si>
+  <si>
+    <t>Added phone no to be 91234567</t>
+  </si>
+  <si>
+    <t>Added phone to be 999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+Phone No: 999
+</t>
+  </si>
+  <si>
+    <t>"Please input valid phone number"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+Address: 123 Bukit Gombak St
+</t>
+  </si>
+  <si>
+    <t>Added address to be 123 Bukit Gombak St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+Image: csv file
+</t>
+  </si>
+  <si>
+    <t>Added  a csv file as image</t>
+  </si>
+  <si>
+    <t>"Only image(jpg, png, jpeg) are allowed."</t>
+  </si>
+  <si>
+    <t>Added  a jpg file as image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+Image: jpg file
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullName/Email/Password/Birthdate unchanged.
+Added -
+Gender - Male
+</t>
+  </si>
+  <si>
+    <t>Added Male as gender</t>
+  </si>
+  <si>
+    <t>Create Tutor (Mass Upload)</t>
+  </si>
+  <si>
+    <t>Create Multiple Tutor</t>
+  </si>
+  <si>
+    <t>Upload CSV File with 3 tutors</t>
+  </si>
+  <si>
+    <t>Uploaded 3 tutors in the CSV file with necessary details</t>
+  </si>
+  <si>
+    <t>Create Subject</t>
+  </si>
+  <si>
+    <t>Subject Name: Database Management
+Level: Sec1-4</t>
+  </si>
+  <si>
+    <t>"Subject created successfully"</t>
+  </si>
+  <si>
+    <t>Update Subject</t>
+  </si>
+  <si>
+    <t>Delete levels for subjects</t>
+  </si>
+  <si>
+    <t>Delete Sec 1-3</t>
+  </si>
+  <si>
+    <t>Select "cross" on the level, followed by "Yes, Remove"</t>
+  </si>
+  <si>
+    <t>"Success. Deleted level from subject successfully"</t>
+  </si>
+  <si>
+    <t>Add levels for subjects</t>
+  </si>
+  <si>
+    <t>Add Pri 6</t>
+  </si>
+  <si>
+    <t>Select Pri 6 from dropdown box</t>
+  </si>
+  <si>
+    <t>"Success. Added level form subject successfully"</t>
+  </si>
+  <si>
+    <t>No dropdown box to select from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete subject </t>
+  </si>
+  <si>
+    <t>Verify that all the data related to subject will be deleted from database</t>
+  </si>
+  <si>
+    <t>Subject Deleted successfully and display message "Deleted Subject record successfully"</t>
+  </si>
+  <si>
+    <t>Subject Deleted successfully and display message "Deleted  Subject record successfully"</t>
+  </si>
+  <si>
+    <t>Create Student</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Name: blank
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>"Please enter student name"</t>
+  </si>
+  <si>
+    <t>Did not select level</t>
+  </si>
+  <si>
+    <t>"Please select level"</t>
+  </si>
+  <si>
+    <t>"Please enter a valid email address"</t>
+  </si>
+  <si>
+    <t>Lave email blank</t>
+  </si>
+  <si>
+    <t>Leave email blank</t>
+  </si>
+  <si>
+    <t>Leave name blank</t>
+  </si>
+  <si>
+    <t>Leave password to blank</t>
+  </si>
+  <si>
+    <t>Change student email to johndoe@gmail</t>
+  </si>
+  <si>
+    <t>Change parent's email to maydoe</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Select level
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 98765432
+Parent's Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Change parent's email to maydoe@gmail</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: blank
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 98765432
+Email: maydoe@gmail</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 98765432
+Email: blank</t>
+  </si>
+  <si>
+    <t>Leave student email blank</t>
+  </si>
+  <si>
+    <t>Leave parent's email blank</t>
+  </si>
+  <si>
+    <t>Change student's email to johndoe</t>
+  </si>
+  <si>
+    <t>"This value is not valid"</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: blank
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: blank
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Leave parent's number blank</t>
+  </si>
+  <si>
+    <t>"Enter Mobile"</t>
+  </si>
+  <si>
+    <t>No error</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Password: Generated
+Parent's Mobile: 987654322
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Delete Student</t>
+  </si>
+  <si>
+    <t>Click Rubbish Bin Icon on selected student, followed by "Yes, Remove"</t>
+  </si>
+  <si>
+    <t>Student Deleted successfully and display message "Deleted  Student record successfully"</t>
+  </si>
+  <si>
+    <t>Click Rubbish Bin Icon on selected subject, followed by "Yes, Remove"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1029,7 +1611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1147,18 +1729,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1170,28 +1774,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1203,19 +1807,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1224,28 +1877,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0B9887A6-7CC9-441C-B771-FC27E966D64E}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1603,19 +2260,19 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2318,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1688,7 +2345,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1715,7 +2372,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1742,7 +2399,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1769,7 +2426,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1796,7 +2453,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1823,7 +2480,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1850,7 +2507,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1877,7 +2534,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1904,7 +2561,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1931,7 +2588,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1958,7 +2615,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1987,7 +2644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2016,7 +2673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2045,7 +2702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2074,7 +2731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2103,7 +2760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2132,7 +2789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2161,7 +2818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2190,7 +2847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2219,7 +2876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2248,7 +2905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2277,7 +2934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2306,7 +2963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2335,7 +2992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2362,7 +3019,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2389,7 +3046,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2416,7 +3073,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2445,7 +3102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2472,7 +3129,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2499,7 +3156,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2526,7 +3183,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2553,7 +3210,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2580,7 +3237,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2607,7 +3264,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2634,7 +3291,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2661,7 +3318,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2688,7 +3345,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2715,7 +3372,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2742,7 +3399,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2769,7 +3426,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2796,7 +3453,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2823,7 +3480,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2850,7 +3507,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2877,7 +3534,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2904,7 +3561,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2931,7 +3588,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2958,7 +3615,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2985,7 +3642,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -3012,7 +3669,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -3039,7 +3696,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -3066,7 +3723,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -3093,7 +3750,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -3120,7 +3777,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -3147,7 +3804,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -3174,7 +3831,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -3201,7 +3858,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3228,7 +3885,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3241,7 +3898,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3254,7 +3911,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3267,7 +3924,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3280,7 +3937,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3293,7 +3950,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3306,7 +3963,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3319,7 +3976,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3332,7 +3989,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3345,7 +4002,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3358,7 +4015,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3371,7 +4028,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3384,7 +4041,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3397,7 +4054,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -3410,7 +4067,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -3423,7 +4080,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -3436,7 +4093,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -3449,7 +4106,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -3462,7 +4119,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -3475,7 +4132,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -3488,7 +4145,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -3501,7 +4158,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3514,7 +4171,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3527,7 +4184,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3540,7 +4197,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3553,7 +4210,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3566,7 +4223,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3579,7 +4236,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3592,7 +4249,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3605,7 +4262,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3618,7 +4275,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3631,7 +4288,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3644,7 +4301,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3657,7 +4314,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3670,7 +4327,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3683,7 +4340,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3696,7 +4353,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3709,7 +4366,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3722,7 +4379,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3735,7 +4392,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3748,7 +4405,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3761,7 +4418,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -3774,7 +4431,7 @@
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -3788,12 +4445,12 @@
       <c r="I101" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3815,25 +4472,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5155472-66AF-4323-ACD5-D08CB3B87B8B}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" customWidth="1"/>
-    <col min="5" max="5" width="27.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3862,7 +4519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3889,7 +4546,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3916,7 +4573,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3943,7 +4600,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3970,7 +4627,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3997,7 +4654,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4024,7 +4681,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4051,7 +4708,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4078,7 +4735,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4105,7 +4762,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4132,7 +4789,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4159,7 +4816,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>18</v>
       </c>
@@ -4186,7 +4843,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>19</v>
       </c>
@@ -4213,7 +4870,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -4240,7 +4897,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -4267,7 +4924,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>22</v>
       </c>
@@ -4294,7 +4951,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>23</v>
       </c>
@@ -4321,7 +4978,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>24</v>
       </c>
@@ -4348,7 +5005,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>25</v>
       </c>
@@ -4375,7 +5032,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>26</v>
       </c>
@@ -4402,7 +5059,7 @@
       </c>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>27</v>
       </c>
@@ -4429,7 +5086,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>28</v>
       </c>
@@ -4456,7 +5113,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>29</v>
       </c>
@@ -4483,7 +5140,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>30</v>
       </c>
@@ -4510,7 +5167,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>31</v>
       </c>
@@ -4537,7 +5194,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>32</v>
       </c>
@@ -4564,7 +5221,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>33</v>
       </c>
@@ -4591,7 +5248,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>34</v>
       </c>
@@ -4618,7 +5275,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>35</v>
       </c>
@@ -4645,7 +5302,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>36</v>
       </c>
@@ -4672,7 +5329,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>37</v>
       </c>
@@ -4699,7 +5356,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>38</v>
       </c>
@@ -4728,7 +5385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>39</v>
       </c>
@@ -4755,7 +5412,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>40</v>
       </c>
@@ -4782,7 +5439,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>41</v>
       </c>
@@ -4809,7 +5466,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>42</v>
       </c>
@@ -4836,7 +5493,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43</v>
       </c>
@@ -4863,7 +5520,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>44</v>
       </c>
@@ -4890,7 +5547,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>45</v>
       </c>
@@ -4917,7 +5574,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>46</v>
       </c>
@@ -4944,7 +5601,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>47</v>
       </c>
@@ -4971,7 +5628,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>48</v>
       </c>
@@ -4998,7 +5655,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>49</v>
       </c>
@@ -5025,7 +5682,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>50</v>
       </c>
@@ -5052,7 +5709,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>51</v>
       </c>
@@ -5079,7 +5736,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>52</v>
       </c>
@@ -5106,7 +5763,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>53</v>
       </c>
@@ -5135,7 +5792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>54</v>
       </c>
@@ -5162,7 +5819,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -5189,7 +5846,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>56</v>
       </c>
@@ -5216,7 +5873,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>57</v>
       </c>
@@ -5243,7 +5900,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>58</v>
       </c>
@@ -5270,7 +5927,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>59</v>
       </c>
@@ -5297,7 +5954,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>60</v>
       </c>
@@ -5324,7 +5981,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>61</v>
       </c>
@@ -5351,7 +6008,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>62</v>
       </c>
@@ -5378,7 +6035,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>63</v>
       </c>
@@ -5405,7 +6062,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>64</v>
       </c>
@@ -5432,7 +6089,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>68</v>
       </c>
@@ -5459,7 +6116,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>69</v>
       </c>
@@ -5486,7 +6143,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>70</v>
       </c>
@@ -5513,7 +6170,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>71</v>
       </c>
@@ -5540,7 +6197,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>72</v>
       </c>
@@ -5567,7 +6224,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>73</v>
       </c>
@@ -5594,7 +6251,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>74</v>
       </c>
@@ -5623,7 +6280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>75</v>
       </c>
@@ -5650,7 +6307,7 @@
       </c>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>76</v>
       </c>
@@ -5677,7 +6334,7 @@
       </c>
       <c r="I68" s="27"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>77</v>
       </c>
@@ -5690,7 +6347,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>78</v>
       </c>
@@ -5703,7 +6360,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>79</v>
       </c>
@@ -5716,7 +6373,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>80</v>
       </c>
@@ -5729,7 +6386,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>81</v>
       </c>
@@ -5742,7 +6399,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>82</v>
       </c>
@@ -5755,7 +6412,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>83</v>
       </c>
@@ -5768,7 +6425,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>84</v>
       </c>
@@ -5781,7 +6438,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>85</v>
       </c>
@@ -5794,7 +6451,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>86</v>
       </c>
@@ -5807,7 +6464,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>87</v>
       </c>
@@ -5820,7 +6477,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>88</v>
       </c>
@@ -5833,7 +6490,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>89</v>
       </c>
@@ -5846,7 +6503,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>90</v>
       </c>
@@ -5859,7 +6516,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>91</v>
       </c>
@@ -5872,7 +6529,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>92</v>
       </c>
@@ -5885,7 +6542,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>93</v>
       </c>
@@ -5898,7 +6555,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>94</v>
       </c>
@@ -5911,7 +6568,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>95</v>
       </c>
@@ -5924,7 +6581,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>96</v>
       </c>
@@ -5939,10 +6596,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5954,4 +6611,1892 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12FA047-331C-4FBE-BFE8-A77E964657D9}">
+  <dimension ref="A1:XFD88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9 16384:16384" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="XFD40" s="37"/>
+    </row>
+    <row r="41" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C8A533F2-7FC4-44D4-A68D-F67172B28617}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHOOL\y3s1\IS480 FYP\Thriving-Stones-Project\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBE9D99E-641E-4BB4-83E6-15BB1837C1D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7147A5E7-2142-4E25-AC29-3076476A7D59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="25755" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="463">
   <si>
     <t>S/N</t>
   </si>
@@ -1072,18 +1072,6 @@
     <t>"Please enter valid phone number"</t>
   </si>
   <si>
-    <t>Full Name: Max Lim
-Email: maxlim@gmail.com
-Password: Generated
-Other Fields: Optional</t>
-  </si>
-  <si>
-    <t>Full Name: blank
-Email: maxlim@gmail.com
-Password: Generated
-Other Fields: Optional</t>
-  </si>
-  <si>
     <t>Changed name to blank</t>
   </si>
   <si>
@@ -1093,39 +1081,12 @@
     <t>"Please enter valid email addres"</t>
   </si>
   <si>
-    <t>"Password cannot be empty"</t>
-  </si>
-  <si>
     <t>Changed email address to invalid format, maxlim</t>
   </si>
   <si>
-    <t>Full Name: Max Lim
-Email: maxlim@hot
-Password: Generated
-Other Fields: Optional</t>
-  </si>
-  <si>
     <t>Changed email address to invalid format, maxlim@hot</t>
   </si>
   <si>
-    <t>Full Name: Max Lim
-Email: maxlim
-Password: Generated
-Other Fields: Optional</t>
-  </si>
-  <si>
-    <t>Full Name: Max Lim
-Email: maxlim@gmail.com
-Password: blank
-Other Fields: Optional</t>
-  </si>
-  <si>
-    <t>Full Name: Max Lim
-Email: blank
-Password: Generated
-Other Fields: Optional</t>
-  </si>
-  <si>
     <t>"Enter Email Address"</t>
   </si>
   <si>
@@ -1135,43 +1096,7 @@
     <t>"Please enter username"</t>
   </si>
   <si>
-    <t>Branch: Bukit Panjang Branch
-Username: blank
-Email: kanelam@gmail.com
-Password: Generated</t>
-  </si>
-  <si>
-    <t>Branch: Bukit Panjang Branch
-Username: kanelam
-Email: kanelam@gmail.com
-Password: Generated</t>
-  </si>
-  <si>
-    <t>Branch: Bukit Panjang Branch
-Username: kanelam
-Email: blank
-Password: Generated</t>
-  </si>
-  <si>
-    <t>Branch: Bukit Panjang Branch
-Username: kanelam
-Email: kanelam@gmail.com
-Password: blank</t>
-  </si>
-  <si>
-    <t>Branch: Bukit Panjang Branch
-Username: kanelam
-Email: kanelam
-Password: Generated</t>
-  </si>
-  <si>
     <t>Changed email address to invalid format, kanelam</t>
-  </si>
-  <si>
-    <t>Branch: Bukit Panjang Branch
-Username: kanelam
-Email: kanelam@gmail
-Password: Generated</t>
   </si>
   <si>
     <t>Changed email address to invalid format, kanelam@gmail</t>
@@ -1355,10 +1280,142 @@
     <t>Create Student</t>
   </si>
   <si>
+    <t>"Please enter student name"</t>
+  </si>
+  <si>
+    <t>Did not select level</t>
+  </si>
+  <si>
+    <t>"Please select level"</t>
+  </si>
+  <si>
+    <t>"Please enter a valid email address"</t>
+  </si>
+  <si>
+    <t>Lave email blank</t>
+  </si>
+  <si>
+    <t>Leave email blank</t>
+  </si>
+  <si>
+    <t>Leave name blank</t>
+  </si>
+  <si>
+    <t>Change student email to johndoe@gmail</t>
+  </si>
+  <si>
+    <t>Change parent's email to maydoe</t>
+  </si>
+  <si>
+    <t>Change parent's email to maydoe@gmail</t>
+  </si>
+  <si>
+    <t>Leave student email blank</t>
+  </si>
+  <si>
+    <t>Leave parent's email blank</t>
+  </si>
+  <si>
+    <t>Change student's email to johndoe</t>
+  </si>
+  <si>
+    <t>Leave parent's number blank</t>
+  </si>
+  <si>
+    <t>"Enter Mobile"</t>
+  </si>
+  <si>
+    <t>No error</t>
+  </si>
+  <si>
+    <t>Delete Student</t>
+  </si>
+  <si>
+    <t>Click Rubbish Bin Icon on selected student, followed by "Yes, Remove"</t>
+  </si>
+  <si>
+    <t>Student Deleted successfully and display message "Deleted  Student record successfully"</t>
+  </si>
+  <si>
+    <t>Click Rubbish Bin Icon on selected subject, followed by "Yes, Remove"</t>
+  </si>
+  <si>
+    <t>Update Student</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam@gmail.com</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: blank
+Email: kanelam@gmail.com</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: blank</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: kanelam
+Email: kanelam@gmail</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Birthdate: 10-08-2018
+Email: maxlim@gmail.com
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: blank
+Birthdate: 10-08-2018
+Email: maxlim@gmail.com
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Birthdate: 10-08-2018
+Email: blank
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Birthdate: 10-08-2018
+Email: maxlim@hot
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Birthdate: 10-08-2018
+Email: maxlim
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Birthdate: blank
+Email: maxlim
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Leave birthdate blank</t>
+  </si>
+  <si>
+    <t>"BirthDate cannot be empty"</t>
+  </si>
+  <si>
+    <t>"Please enter valid email address"</t>
+  </si>
+  <si>
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe@gmail.com</t>
   </si>
@@ -1366,56 +1423,20 @@
     <t>Name: blank
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe@gmail.com</t>
-  </si>
-  <si>
-    <t>"Please enter student name"</t>
-  </si>
-  <si>
-    <t>Did not select level</t>
-  </si>
-  <si>
-    <t>"Please select level"</t>
-  </si>
-  <si>
-    <t>"Please enter a valid email address"</t>
-  </si>
-  <si>
-    <t>Lave email blank</t>
-  </si>
-  <si>
-    <t>Leave email blank</t>
-  </si>
-  <si>
-    <t>Leave name blank</t>
-  </si>
-  <si>
-    <t>Leave password to blank</t>
-  </si>
-  <si>
-    <t>Change student email to johndoe@gmail</t>
-  </si>
-  <si>
-    <t>Change parent's email to maydoe</t>
   </si>
   <si>
     <t>Name: John Doe
 Academic Level: Select level
 Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 98765432
 Parent's Email: maydoe@gmail.com</t>
-  </si>
-  <si>
-    <t>Change parent's email to maydoe@gmail</t>
   </si>
   <si>
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: blank
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe@gmail.com</t>
   </si>
@@ -1423,7 +1444,6 @@
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe@gmail.com</t>
   </si>
@@ -1431,7 +1451,6 @@
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe@gmail.com</t>
   </si>
@@ -1439,7 +1458,6 @@
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe</t>
   </si>
@@ -1447,7 +1465,6 @@
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 98765432
 Email: maydoe@gmail</t>
   </si>
@@ -1455,77 +1472,349 @@
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 98765432
 Email: blank</t>
-  </si>
-  <si>
-    <t>Leave student email blank</t>
-  </si>
-  <si>
-    <t>Leave parent's email blank</t>
-  </si>
-  <si>
-    <t>Change student's email to johndoe</t>
-  </si>
-  <si>
-    <t>"This value is not valid"</t>
   </si>
   <si>
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: blank
-Parent's Mobile: 98765432
+Parent's Mobile: blank
 Email: maydoe@gmail.com</t>
   </si>
   <si>
     <t>Name: John Doe
 Academic Level: Sec 2
 Email: johndoe@gmaill.com
-Password: Generated
-Parent's Mobile: blank
-Email: maydoe@gmail.com</t>
-  </si>
-  <si>
-    <t>Leave parent's number blank</t>
-  </si>
-  <si>
-    <t>"Enter Mobile"</t>
-  </si>
-  <si>
-    <t>No error</t>
-  </si>
-  <si>
-    <t>Name: John Doe
-Academic Level: Sec 2
-Email: johndoe@gmaill.com
-Password: Generated
 Parent's Mobile: 987654322
 Email: maydoe@gmail.com</t>
   </si>
   <si>
-    <t>Delete Student</t>
-  </si>
-  <si>
-    <t>Click Rubbish Bin Icon on selected student, followed by "Yes, Remove"</t>
-  </si>
-  <si>
-    <t>Student Deleted successfully and display message "Deleted  Student record successfully"</t>
-  </si>
-  <si>
-    <t>Click Rubbish Bin Icon on selected subject, followed by "Yes, Remove"</t>
+    <t>Added address to be 123 road</t>
+  </si>
+  <si>
+    <t>"Success. Student record updated successfully"</t>
+  </si>
+  <si>
+    <t>Add valid input</t>
+  </si>
+  <si>
+    <t>Verify Wrong field</t>
+  </si>
+  <si>
+    <t>Name/Academic Level/Email left unchanged
+Added  - 
+Address: 123 road</t>
+  </si>
+  <si>
+    <t>Name/Academic Level/Email left unchanged
+Changed - 
+Phone: 999</t>
+  </si>
+  <si>
+    <t>Changed phone number to 999</t>
+  </si>
+  <si>
+    <t>Name/Academic Level/Email left unchanged
+Added  - 
+Required amt: 123
+Outstanding amt: 77</t>
+  </si>
+  <si>
+    <t>Added required amt to be 123 and outstanding amt to be 77</t>
+  </si>
+  <si>
+    <t>Name/Academic Level/Email left unchanged
+Added  - 
+Required amt: a
+Outstanding amt: b</t>
+  </si>
+  <si>
+    <t>Added required amt to be a and outstanding amt to be b</t>
+  </si>
+  <si>
+    <t>"Please enter valid amount"</t>
+  </si>
+  <si>
+    <t>"Email cannot be empty"</t>
+  </si>
+  <si>
+    <t>Master and Branch Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Verify display</t>
+  </si>
+  <si>
+    <t>Navigate to dashboard</t>
+  </si>
+  <si>
+    <t>Display number of branch, number of student, number of tutor, and student per level</t>
+  </si>
+  <si>
+    <t>Tutor Dashboard</t>
+  </si>
+  <si>
+    <t>Display number of class and number of student</t>
+  </si>
+  <si>
+    <t>Verify empty input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Password:  
+Confirm New Password: </t>
+  </si>
+  <si>
+    <t>login, navigate to update password, leave the inputs blank</t>
+  </si>
+  <si>
+    <t>"Please enter password",  "Please enter new password"</t>
+  </si>
+  <si>
+    <t>Verify wrong input</t>
+  </si>
+  <si>
+    <t>New Password:  admin
+Confirm New Password: adminadmin</t>
+  </si>
+  <si>
+    <t>login, navigate to update password, Input different password for confirm password field</t>
+  </si>
+  <si>
+    <t>"The password and its confirm are not the same"</t>
+  </si>
+  <si>
+    <t>New Password: adminadmin
+Confirm New Password: adminadmin</t>
+  </si>
+  <si>
+    <t>login, navigate to update password, input the field based on test inputs</t>
+  </si>
+  <si>
+    <t>Redirect to login page and show "Reset password successfully, Please login with new password"</t>
+  </si>
+  <si>
+    <t>Register For Class</t>
+  </si>
+  <si>
+    <t>Student:</t>
+  </si>
+  <si>
+    <t>login as branch admin, navifate to register for class, Leave the inputs blank</t>
+  </si>
+  <si>
+    <t>"Please input student name"</t>
+  </si>
+  <si>
+    <t>"Not Exists in Database, Please Create Student First."</t>
+  </si>
+  <si>
+    <t>Student: John Do</t>
+  </si>
+  <si>
+    <t>login as branch admin, navifate to register for class, input the field based on test inputs</t>
+  </si>
+  <si>
+    <t>"John Do Not Exists in Database, Please Create Student First."</t>
+  </si>
+  <si>
+    <t>Student: John Doe</t>
+  </si>
+  <si>
+    <t>Show classes available</t>
+  </si>
+  <si>
+    <t>Successful Registration</t>
+  </si>
+  <si>
+    <t>login as branch admin, navifate to register for class, input the field based on test inputs and choose one class to register</t>
+  </si>
+  <si>
+    <t>Redirect to Display Students</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Username:
+Password</t>
+  </si>
+  <si>
+    <t>navigate to forgot password, click on get password</t>
+  </si>
+  <si>
+    <t>"Please input username", "Please select role"</t>
+  </si>
+  <si>
+    <t>using credentials but change role to tutor/student/parent</t>
+  </si>
+  <si>
+    <t>Username: admin
+Role: parent</t>
+  </si>
+  <si>
+    <t>"User does not exist"</t>
+  </si>
+  <si>
+    <t>Valid input</t>
+  </si>
+  <si>
+    <t>Username: admin
+Role: admin</t>
+  </si>
+  <si>
+    <t>navigate to forgot password, input the field based on test inputs, click on get password</t>
+  </si>
+  <si>
+    <t>"Email sent. please check your email for instruction to reset your password."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid link </t>
+  </si>
+  <si>
+    <t>Repeat No. 63, go to email and copy the link and delete one character from the link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page not found </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid link </t>
+  </si>
+  <si>
+    <t>Repeat No. 63, go to email and click the link</t>
+  </si>
+  <si>
+    <t>Redirect to change password page</t>
+  </si>
+  <si>
+    <t>Repeat No. 64, leave the input blank</t>
+  </si>
+  <si>
+    <t>Repeat No. 64, Input different password for confirm password field</t>
+  </si>
+  <si>
+    <t>Repeat No. 64,  input the field based on test inputs</t>
+  </si>
+  <si>
+    <t>Assessment Type: CA1
+Student: Anthony
+Grade: 81</t>
+  </si>
+  <si>
+    <t>"Successfully added"</t>
+  </si>
+  <si>
+    <t>Assessment Type: CA1
+Student: Anthony
+Grade: blank</t>
+  </si>
+  <si>
+    <t>Leave grade blank</t>
+  </si>
+  <si>
+    <t>"Error while adding grade."</t>
+  </si>
+  <si>
+    <t>Assessment Type: CA1
+Student: Anthony
+Grade: asd</t>
+  </si>
+  <si>
+    <t>Change grade to asd</t>
+  </si>
+  <si>
+    <t>Unable to type "asd"</t>
+  </si>
+  <si>
+    <t>Assessment Type: CA1
+Student: Anthony
+Grade: -5</t>
+  </si>
+  <si>
+    <t>Change grade to -5</t>
+  </si>
+  <si>
+    <t>Assessment Type: CA1
+Student: Anthony
+Grade: 1000</t>
+  </si>
+  <si>
+    <t>Change grade to 1000</t>
+  </si>
+  <si>
+    <t>Student: Anthony</t>
+  </si>
+  <si>
+    <t>Retrieve grade of particular student</t>
+  </si>
+  <si>
+    <t>Select Anthony and retrieve</t>
+  </si>
+  <si>
+    <t>Grades displayed</t>
+  </si>
+  <si>
+    <t>Student: Anthony
+Subject: Science
+Assessment: CA1
+Grade: 15</t>
+  </si>
+  <si>
+    <t>"Grade Updated Successfully."</t>
+  </si>
+  <si>
+    <t>Valid updating of grade</t>
+  </si>
+  <si>
+    <t>Student: Anthony
+Subject: Science
+Assessment: SA1
+Grade: 16</t>
+  </si>
+  <si>
+    <t>Change assessment to SA1(do not exist)</t>
+  </si>
+  <si>
+    <t>"No such assessment yet"</t>
+  </si>
+  <si>
+    <t>Invalid updating of grade</t>
+  </si>
+  <si>
+    <t>"Please select subject/assessment"</t>
+  </si>
+  <si>
+    <t>Leave subject and assessment blank</t>
+  </si>
+  <si>
+    <t>Student: Anthony
+Subject: blank
+Assessment: blank
+Grade: 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1597,7 +1886,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,8 +1899,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1751,18 +2046,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1774,28 +2097,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1807,74 +2130,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4445,7 +4828,7 @@
       <c r="I101" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"fail"</formula>
@@ -6618,8 +7001,8 @@
   <dimension ref="A1:XFD88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6630,7 +7013,7 @@
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
@@ -6858,7 +7241,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>257</v>
@@ -6885,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>237</v>
@@ -6912,7 +7295,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>263</v>
@@ -6934,18 +7317,18 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>349</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>236</v>
@@ -6961,108 +7344,108 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>282</v>
+      <c r="D13" s="42" t="s">
+        <v>350</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>239</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>284</v>
+      <c r="D14" s="42" t="s">
+        <v>351</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>286</v>
+      <c r="D15" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>288</v>
+      <c r="D16" s="42" t="s">
+        <v>353</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>41</v>
@@ -7073,26 +7456,26 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>291</v>
+      <c r="B17" s="37" t="s">
+        <v>277</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>242</v>
+        <v>155</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>236</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>46</v>
+      <c r="G17" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -7101,22 +7484,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>355</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>41</v>
@@ -7128,22 +7511,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>268</v>
+      <c r="D19" s="42" t="s">
+        <v>356</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>41</v>
@@ -7155,132 +7538,132 @@
         <v>19</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>278</v>
+        <v>263</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>357</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>274</v>
+      <c r="D21" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>362</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>271</v>
+        <v>237</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="H23" s="37" t="s">
+      <c r="B23" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="B24" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="4"/>
@@ -7289,28 +7672,28 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="4"/>
+      <c r="C25" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -7320,22 +7703,22 @@
         <v>157</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I26" s="4"/>
     </row>
@@ -7343,28 +7726,28 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="4"/>
+      <c r="C27" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -7374,22 +7757,22 @@
         <v>157</v>
       </c>
       <c r="C28" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>307</v>
-      </c>
       <c r="F28" s="37" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -7401,13 +7784,13 @@
         <v>157</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>301</v>
@@ -7428,19 +7811,19 @@
         <v>157</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="H30" s="37" t="s">
         <v>41</v>
@@ -7455,262 +7838,262 @@
         <v>157</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H31" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>157</v>
+      <c r="B32" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9 16384:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="39" t="s">
-        <v>319</v>
+      <c r="B33" s="37" t="s">
+        <v>310</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="22"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9 16384:16384" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>46</v>
+      <c r="H36" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="B37" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>341</v>
+        <v>237</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>364</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>342</v>
+      <c r="D39" s="42" t="s">
+        <v>365</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>353</v>
+      <c r="D40" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>41</v>
@@ -7718,638 +8101,1024 @@
       <c r="I40" s="17"/>
       <c r="XFD40" s="37"/>
     </row>
-    <row r="41" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>361</v>
-      </c>
       <c r="F41" s="37" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="H41" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="37" t="s">
-        <v>356</v>
+      <c r="D42" s="42" t="s">
+        <v>368</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H42" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="37" t="s">
-        <v>357</v>
+      <c r="D43" s="42" t="s">
+        <v>369</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>358</v>
+      <c r="D44" s="42" t="s">
+        <v>370</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>359</v>
+        <v>237</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>371</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>346</v>
+        <v>339</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>386</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C46" s="37" t="s">
+      <c r="B46" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D46" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="D46" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>365</v>
+        <v>263</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>373</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9 16384:16384" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="H49" s="37" t="s">
+      <c r="B49" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="47">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>41</v>
+      <c r="B50" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="47">
         <v>50</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="26"/>
+      <c r="B51" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="26"/>
+      <c r="B53" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="H53" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>388</v>
+      </c>
       <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="E54" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="B55" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="B56" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="B57" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="54">
         <v>57</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="B58" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="H58" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="B59" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="B60" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="E60" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="H60" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="B61" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="F61" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="H61" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="B62" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="F62" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="H62" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="B63" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
+      <c r="B64" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="H64" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>428</v>
+      </c>
       <c r="D65" s="17"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="E65" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="B66" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>431</v>
+      </c>
       <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
+      <c r="E66" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="H66" s="61" t="s">
+        <v>41</v>
+      </c>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="B67" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
+      <c r="B68" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="F68" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I68" s="27"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="B69" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="B70" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
+      <c r="B71" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="B72" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="F73" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G73" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="H73" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="B74" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>448</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="B75" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="F75" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="B76" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>41</v>
+      </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="B77" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="D77" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="E77" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G77" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="H77" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="B78" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="H78" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">

--- a/testing/Team eXi Test Cases.xlsx
+++ b/testing/Team eXi Test Cases.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin\Documents\FYP\Thriving-Stones-Project\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7147A5E7-2142-4E25-AC29-3076476A7D59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF3391-E3C7-4D7A-BFE4-137CD96A867C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25755" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="50" windowWidth="25760" windowHeight="11600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 2" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration 3" sheetId="2" r:id="rId2"/>
     <sheet name="Iteration 4" sheetId="4" r:id="rId3"/>
+    <sheet name="Iteration 5" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="725">
   <si>
     <t>S/N</t>
   </si>
@@ -1791,16 +1799,1006 @@
 Assessment: blank
 Grade: 17</t>
   </si>
+  <si>
+    <t>The user would be able to login with the correct username and password entered</t>
+  </si>
+  <si>
+    <t>Enter the specified username and password in the respective fields and click login</t>
+  </si>
+  <si>
+    <t>Username: blank
+Pwd: adminadmin</t>
+  </si>
+  <si>
+    <t>Leave username blank and enter the password in the password field</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: blank</t>
+  </si>
+  <si>
+    <t>Entering the master admin credentials would bring the user to the master admin dashboard view upon successful login</t>
+  </si>
+  <si>
+    <t>Entering the branch admin credentials would bring the user to the master admin dashboard view upon successful login</t>
+  </si>
+  <si>
+    <t>Username: xin
+Pwd: xinxin</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the master admin view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the branch admin view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>The user was redirected to the master admin view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user was redirected to the branch admin view of the dashboard with the correct navigation bar </t>
+  </si>
+  <si>
+    <t>Entering the tutor credentials would bring the user to the master admin dashboard view upon successful login</t>
+  </si>
+  <si>
+    <t>Username: xin2018
+Pwd: xinxin</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the tutor view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>The user was redirected to the tutor view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>Entering the student credentials would bring the user to the parent dashboard view upon successful login</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the student view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>The user was redirected to the student view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the parent view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>The user was redirected to the parent view of the dashboard with the correct navigation bar</t>
+  </si>
+  <si>
+    <t>Username: admin
+Pwd: wasd1234567</t>
+  </si>
+  <si>
+    <t>Login with the wrong password for the master admin account</t>
+  </si>
+  <si>
+    <t>Login with the wrong username for master admin account</t>
+  </si>
+  <si>
+    <t>Username: randomuser
+Pwd: adminadmin</t>
+  </si>
+  <si>
+    <t>Login with the wrong password for the branch admin account</t>
+  </si>
+  <si>
+    <t>Login with the wrong username for branch admin account</t>
+  </si>
+  <si>
+    <t>Username: xin
+Pwd: wasd1234567</t>
+  </si>
+  <si>
+    <t>Username: randomuser
+Pwd: xinxin</t>
+  </si>
+  <si>
+    <t>Login with the wrong password for the tutor account</t>
+  </si>
+  <si>
+    <t>Login with the wrong username for tutor account</t>
+  </si>
+  <si>
+    <t>Username: xin2018
+Pwd: wasd1234567</t>
+  </si>
+  <si>
+    <t>Username: emily2018
+Pwd: emily00</t>
+  </si>
+  <si>
+    <t>Entering the parent credentials would bring the user to the parent dashboard view upon successful login</t>
+  </si>
+  <si>
+    <t>Username: amy85
+Pwd: amy85</t>
+  </si>
+  <si>
+    <t>Login with the wrong password for the student account</t>
+  </si>
+  <si>
+    <t>Username: emily2018
+Pwd: wasd</t>
+  </si>
+  <si>
+    <t>Username: randomuser
+Pwd: emily00</t>
+  </si>
+  <si>
+    <t>Login with the wrong username for student account</t>
+  </si>
+  <si>
+    <t>Login with the wrong password for the parent account</t>
+  </si>
+  <si>
+    <t>Username: amy85
+Pwd: wasd1234567</t>
+  </si>
+  <si>
+    <t>Username: randomuser
+Pwd: amy85</t>
+  </si>
+  <si>
+    <t>Login with the wrong username for parent account</t>
+  </si>
+  <si>
+    <t>Enter the specified information in their respective fields and click 'Create Branch'</t>
+  </si>
+  <si>
+    <t>Branch Name: Bedok Branch
+Branch Address: 123 Bedok St
+Phone Number: 66669999
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter valid phone number' displayed</t>
+  </si>
+  <si>
+    <t>Branch Name: 
+Branch Address: 123 Bedok St
+Phone Number: 91234567
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter branch name' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter branch name' displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter a valid phone number' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter a valid phone number' displayed</t>
+  </si>
+  <si>
+    <t>The master admin should be able to create a branch record with all the valid fields inputted</t>
+  </si>
+  <si>
+    <t>The master admin should not be able to create a branch record without entering the branch name</t>
+  </si>
+  <si>
+    <t>Branch Name: Bedok Branch
+Branch Address: 123 Bedok St
+Phone Number: 33331111
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>The master admin should not be able to create a branch record by entering an invalid format of phone number</t>
+  </si>
+  <si>
+    <t>Branch Name: Bedok Branch
+Branch Address: 123 Bedok St
+Phone Number: asdfksf
+Starting Date: 05-06-2018</t>
+  </si>
+  <si>
+    <t>The master admin should be able to create a new admin record with all the valid information entered</t>
+  </si>
+  <si>
+    <t>View Branches</t>
+  </si>
+  <si>
+    <t>The master admin should be able to view all the branches upon navigating to the Display Branches page</t>
+  </si>
+  <si>
+    <t>Click on 'Branch' in the navigation bar on the left and click on 'View Branches'</t>
+  </si>
+  <si>
+    <t>Following branches should be displayed</t>
+  </si>
+  <si>
+    <t>Following branches displayed</t>
+  </si>
+  <si>
+    <t>Enter the specified details into their respective fields and click 'Create Admin'</t>
+  </si>
+  <si>
+    <t>The master admin should not be able to create a new admin record if the username field is left blank</t>
+  </si>
+  <si>
+    <t>Branch: Bukit Panjang Branch
+Username: 
+Email: kanelam@gmail.com</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter username' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter username' displayed</t>
+  </si>
+  <si>
+    <t>The master admin should not be able to create a new admin record if the email field is left blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch: Bukit Panjang Branch
+Username: kanelam
+Email: </t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter an email address' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter an email address' displayed</t>
+  </si>
+  <si>
+    <t>The master admin should not be able to create a new admin record if the email entered is not of a valid format</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter a valid email address' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter a valid email address' displayed</t>
+  </si>
+  <si>
+    <t>View Branch Admins</t>
+  </si>
+  <si>
+    <t>The master admin should be able to view all the branch admins upon navigating to the Display Branch Admins page</t>
+  </si>
+  <si>
+    <t>Click on 'Branch' in the navigation bar on the left and click on 'View Branch Admins'</t>
+  </si>
+  <si>
+    <t>Following branch admins should be displayed</t>
+  </si>
+  <si>
+    <t>Following branch admins displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a Tutor record with all the valid input details</t>
+  </si>
+  <si>
+    <t>NRIC: S2345678A
+Full Name: Jennie
+Phone:88889999
+Address: Jurong West
+Image: -Upload Image-
+Birthdate: 10-08-2018
+Gender: F
+Email: jennie@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter the specified details into their respective fields and click 'Create Tutor'</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a Tutor record without entering the optional fields</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a Tutor record without entering the full name</t>
+  </si>
+  <si>
+    <t>Full Name: 
+Birthdate: 10-08-2018
+Email: maxlim@gmail.com
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter Tutor Name' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter Tutor Name' displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a Tutor record without entering the email</t>
+  </si>
+  <si>
+    <t>Error Message 'Enter email address' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Enter email address'  displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a Tutor record if an invalid format for email address in inputted</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a Tutor record without entering the date of birth</t>
+  </si>
+  <si>
+    <t>Full Name: Max Lim
+Birthdate: 
+Email: maxlim
+Other Fields: Optional</t>
+  </si>
+  <si>
+    <t>Error Message 'BirthDate cannot be empty' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'BirthDate cannot be empty'  displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to remove all data of Tutor record upon clicking the rubbish icon</t>
+  </si>
+  <si>
+    <t>Click the trash icon beside the desired tutor and click 'Yes, Confirm'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Phone: 91110000
+Address: -
+Image: -
+Email: -
+</t>
+  </si>
+  <si>
+    <t>Enter the new phone number into the phone number field and click 'Save Changes'</t>
+  </si>
+  <si>
+    <t>Message "Success! Tutor record updated successfully" to be displayed and information in database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Success! Tutor record updated successfully" displayed and information in database updated</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the Phone Number of a specific tutor</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the address of a specific tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Phone: -
+Address: Jurong West
+Image: -
+Email: -
+</t>
+  </si>
+  <si>
+    <t>Enter the new address into the address field and click 'Save Changes'</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the image of a specific tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Phone: -
+Address: -
+Image: -Upload Image-
+Email: -
+</t>
+  </si>
+  <si>
+    <t>Upload the new image and click 'Save Changes'</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the email of a specific tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Phone: -
+Address: -
+Image: -
+Email: jennie@hotmail.com
+</t>
+  </si>
+  <si>
+    <t>Enter the new email address into the email address field and click 'Save Changes'</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update Tutor records by uploading a csv file given in the system</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a new Subject linked with the different levels that offers it</t>
+  </si>
+  <si>
+    <t>Enter the specified information in the respective fields and click 'Create Subject'</t>
+  </si>
+  <si>
+    <t>Message "Success! Subject created successfully" to be displayed and information in database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Success! Subject created successfully" displayed and information in database updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The branch admin should be able to remove certain levels from a subject </t>
+  </si>
+  <si>
+    <t>Click on the pencil icon and remove levels Secondary 1 - 3, then click 'Save Changes'</t>
+  </si>
+  <si>
+    <t>Message "Success! Deleted level from subject successfully" to be displayed and information in database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Success! Deleted level from subject successfully" displayed and information in database updated</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to remove all data of Subject record upon clicking the rubbish icon</t>
+  </si>
+  <si>
+    <t>Click the trash icon beside the desired subject and click 'Yes, Confirm'</t>
+  </si>
+  <si>
+    <t>Message "Success! Deleted subject successfully" to be displayed and information in database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Success! Deleted subject successfully" displayed and information in database updated</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a new Student record with all the valid input fields filled in</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Mobile: 99991111
+Email: johndoe@gmaill.com
+Reg Fees: 20
+Parent Name: Amy
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter the specified information in the respective fields and click 'Register Student'</t>
+  </si>
+  <si>
+    <t>The new Student record should be inserted into the database and the branch admin should be redirected to the 'Register for Classes' Page</t>
+  </si>
+  <si>
+    <t>The new Student record is inserted into the database and the branch admin is redirected to the 'Register for Classes' Page</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a new Student record without entering the optional fields</t>
+  </si>
+  <si>
+    <t>Name: XinXin
+Academic Level: Sec 2
+Email: johndoe@gmaill.com
+Reg Fees: 20
+Parent's Name: Amy
+Parent's Mobile: 98765432</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a new Student record with the same parent</t>
+  </si>
+  <si>
+    <t>Name: Jane Doe
+Academic Level: Primary 1
+Email: johndoe@gmail.com
+Parent's Name: Amy
+Parent's Mobile: 98765432</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record without entering the student name</t>
+  </si>
+  <si>
+    <t>Name: 
+Academic Level: Primary 1
+Email: johndoe@gmail.com
+Parent's Name: Amy
+Parent's Mobile: 98765433</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter student name' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter student name'  displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record without selecting the academic level</t>
+  </si>
+  <si>
+    <t>Name: Jane Doe
+Academic Level:
+Email: johndoe@gmail.com
+Parent's Name: Amy
+Parent's Mobile: 98765432</t>
+  </si>
+  <si>
+    <t>Error Message 'Please select level' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please select level' displayed</t>
+  </si>
+  <si>
+    <t>Name: Jane Doe
+Academic Level: Primary 1
+Email: -
+Parent's Name: Amy
+Parent's Mobile: 98765432</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record without entering the email address/phone number</t>
+  </si>
+  <si>
+    <t>Error Message 'Enter phone or email' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Enter phone or email'  displayed</t>
+  </si>
+  <si>
+    <t>Name: Jane Doe
+Academic Level: Primary 1
+Email: johndoe@gmail
+Parent's Name: Amy
+Parent's Mobile: 98765432</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record if the email entered is of invalid format</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter valid email address' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter valid email address'  displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record without entering the parent's name</t>
+  </si>
+  <si>
+    <t>Name: Jane Doe
+Academic Level: Primary 1
+Email: johndoe@gmail.com
+Parent's Name: 
+Parent's Mobile: 98765432</t>
+  </si>
+  <si>
+    <t>Error Message 'Name cannot be empty' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Name cannot be empty' displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Jane Doe
+Academic Level: Primary 1
+Email: johndoe@gmail.com
+Parent's Name: Amy
+Parent's Mobile: </t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record without entering the parent's phone number</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter phone number' to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter phone number' displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record with an invalid phone number for the student</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Mobile: 39991111
+Email: johndoe@gmaill.com
+Reg Fees: 20
+Parent Name: Amy
+Parent's Mobile: 98765432
+Email: maydoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter valid phone number' to be displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new Student record if the email entered for parent is of invalid format</t>
+  </si>
+  <si>
+    <t>Name: John Doe
+Academic Level: Sec 2
+Mobile: 99991111
+Email: johndoe@gmail.com
+Reg Fees: 20
+Parent Name: Amy
+Parent's Mobile: 98765432
+Email: maydoe@</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter valid email address' displayed</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to remove all data of student record upon clicking the rubbish icon</t>
+  </si>
+  <si>
+    <t>Click the trash icon beside the desired student and click 'Yes, Confirm'</t>
+  </si>
+  <si>
+    <t>Message "Failure! Something went wrong" displayed and information in database is not updated</t>
+  </si>
+  <si>
+    <t>Name: Hui Xin
+Level: -
+Address: -
+Contact No: -
+Required Amt: -
+Outstanding Amt: -</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the name of the desired student</t>
+  </si>
+  <si>
+    <t>Enter the specified information in the respective fields and click 'Save Changes'</t>
+  </si>
+  <si>
+    <t>Message "Success! Update student record successfully" to be displayed and information in database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Success! Update student record successfully" displayed and information in database updated</t>
+  </si>
+  <si>
+    <t>Name: -
+Level: Primary 2
+Address: -
+Contact No: -
+Required Amt: -
+Outstanding Amt: -</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the level of the desired student</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the address of the desired student</t>
+  </si>
+  <si>
+    <t>Name: -
+Level: -
+Address: Jurong
+Contact No: -
+Required Amt: -
+Outstanding Amt: -</t>
+  </si>
+  <si>
+    <t>Name: -
+Level: -
+Address: -
+Contact No: 98880000
+Required Amt: -
+Outstanding Amt: -</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the contact number of the desired student</t>
+  </si>
+  <si>
+    <t>Name: -
+Level: -
+Address: -
+Contact No: -
+Required Amt: 120
+Outstanding Amt: -</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to update the required amount of the desired student</t>
+  </si>
+  <si>
+    <t>Name: -
+Level: -
+Address: -
+Contact No: -
+Required Amt: -
+Outstanding Amt: 0</t>
+  </si>
+  <si>
+    <t>The master admin dashboard should display the number of branches, number of students, number of tutors and student per level</t>
+  </si>
+  <si>
+    <t>Master Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Navigate to the Dashboard Page</t>
+  </si>
+  <si>
+    <t>Branch Admin Dashboard</t>
+  </si>
+  <si>
+    <t>The branch admin dashboard should display the number of students, number of tutors and student per level</t>
+  </si>
+  <si>
+    <t>There should be 3 tutors, 3 students and 1 Primary 3 student, 1 Primary 4 student according to the data in the database</t>
+  </si>
+  <si>
+    <t>3 tutors, 3 students and 1 Primary 3 student, 1 Primary 4 student are displayed according to the data in the database</t>
+  </si>
+  <si>
+    <t>There should be 2 branches, 3 tutors, 3 students and 1 Primary 3 student, 1 Primary 4 student according to the data in the database</t>
+  </si>
+  <si>
+    <t>2 branches, 3 tutors, 3 students and 1 Primary 3 student, 1 Primary 4 student are displayed according to the data in the database</t>
+  </si>
+  <si>
+    <t>The tutor dashboard should display the number of classes, number of students and student per class</t>
+  </si>
+  <si>
+    <t>There should be 2 classes, 1 student and 1 student for the Tuesday English class according to the data in the database</t>
+  </si>
+  <si>
+    <t>2 classes, 1 student and 1 student for the Tuesday English class displayed according to the data in the database</t>
+  </si>
+  <si>
+    <t>The user should be able to make a password reset request to reset their password</t>
+  </si>
+  <si>
+    <t>Username: xin
+Role: Admin</t>
+  </si>
+  <si>
+    <t>Click on 'Forgot Password' on the Login Page and enter the specified information in the respective fields</t>
+  </si>
+  <si>
+    <t>An email would be sent to the user with a new password</t>
+  </si>
+  <si>
+    <t>An email is sent to the user with a new password</t>
+  </si>
+  <si>
+    <t>Username: hui
+Role: Tutor</t>
+  </si>
+  <si>
+    <t>Error Message "Invalid User" to be displayed</t>
+  </si>
+  <si>
+    <t>Error Message "Invalid User" is not displayed</t>
+  </si>
+  <si>
+    <t>The user should not be able to make a password reset request to reset their password with an invalid username</t>
+  </si>
+  <si>
+    <t>The tutor should be able to add grades for students in their existing classes with all valid inputs</t>
+  </si>
+  <si>
+    <t>Grade: 81</t>
+  </si>
+  <si>
+    <t>Click on 'Add Grades' for Tuesday English class and enter the specified grade in the grade field and click 'Add Grades'</t>
+  </si>
+  <si>
+    <t>Message "Successfully added!" to be displayed and information in the database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Successfully added!" displayed and information in the database updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade: </t>
+  </si>
+  <si>
+    <t>The tutor should not be able to add grades for students in their existing classes without entering the grade in the grade field</t>
+  </si>
+  <si>
+    <t>The tutor should not be able to add grades for students in their existing classes if they do not enter a value between 0 - 100 in the grade field</t>
+  </si>
+  <si>
+    <t>Grade: asd</t>
+  </si>
+  <si>
+    <t>The user should not be able to enter the specfied value into the field</t>
+  </si>
+  <si>
+    <t>The user is unable to enter the specfied value into the field</t>
+  </si>
+  <si>
+    <t>Grade: 101</t>
+  </si>
+  <si>
+    <t>Message "Error while adding grade!" to be displayed and information in the database should not be updated</t>
+  </si>
+  <si>
+    <t>Message "The grade must be between 0 and 100" to be displayed and user should not be able to click 'Add Grades'</t>
+  </si>
+  <si>
+    <t>Message "The grade must be between 0 and 100" displayed and user is unable to click 'Add Grades'</t>
+  </si>
+  <si>
+    <t>Grade: -5</t>
+  </si>
+  <si>
+    <t>The tutor should be able to update grades for students in their existing classes with all valid inputs</t>
+  </si>
+  <si>
+    <t>Grade: 95</t>
+  </si>
+  <si>
+    <t>Click on 'Update Grades' for Tuesday English class and enter the specified grade in the grade field and click 'Update Grades'</t>
+  </si>
+  <si>
+    <t>Message "Successfully updated!" to be displayed and information in the database to be updated</t>
+  </si>
+  <si>
+    <t>Message "Successfully updated!" displayed and information in the database updated</t>
+  </si>
+  <si>
+    <t>The tutor should not be able to update grades for students in their existing classes without entering the grade in the grade field</t>
+  </si>
+  <si>
+    <t>Message "Error while updating grade!" to be displayed and information in the database should not be updated</t>
+  </si>
+  <si>
+    <t>The tutor should not be able to update grades for students in their existing classes if they do not enter a value between 0 - 100 in the grade field</t>
+  </si>
+  <si>
+    <t>View Student Details</t>
+  </si>
+  <si>
+    <t>View Tutor Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The branch admin should be able to view all details of a specific student </t>
+  </si>
+  <si>
+    <t>Click on 'View Details' for the desired student</t>
+  </si>
+  <si>
+    <t>Information should be shown as follow:
+-NRIC: -
+-Name: Adam
+-Level: Primary 4
+-Contact No.: 97608373
+-Address: -
+-Birth Date: -
+-Gender: -
+-Email: ahdang@gmail.com
+-Required Amt: 0
+-Outstanding Amt: 0</t>
+  </si>
+  <si>
+    <t>Information is displayed as follow</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to view all details of a specific tutor</t>
+  </si>
+  <si>
+    <t>Click on 'View Details' for the desired tutor</t>
+  </si>
+  <si>
+    <t>Information should be shown as follow:
+-NRIC: S9345652A
+-Name: Xin
+-Phone: 91978630
+-Address: -
+-Image: -
+-Birth Date: 22/10/1997
+-Gender: -
+-Email: huixin.tang1997@gmail.com</t>
+  </si>
+  <si>
+    <t>Create Schedule</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a new schedule with all the valid inputs</t>
+  </si>
+  <si>
+    <t>Term: Term IV
+Level: Primary 4
+Year: 2018
+Subject: Science
+Tuition Fees: 120
+Assign to: Xin
+Reminder: Yes
+Total Lesson: 11
+Time Period: 13:00 3 October 2018 - 14:30 3 October 2018</t>
+  </si>
+  <si>
+    <t>Select the Term, Level and Year as specified and click on 'View Timetable'. Double click on the day '3 Oct 2018' and enter the specified information into the respective fields before clicking 'Save'</t>
+  </si>
+  <si>
+    <t>The branch admin should not be able to create a new schedule without entering the tuition fees value</t>
+  </si>
+  <si>
+    <t>Term: Term IV
+Level: Primary 4
+Year: 2018
+Subject: Science
+Tuition Fees:
+Assign to: Xin
+Reminder: Yes
+Total Lesson: 11
+Time Period: 13:00 3 October 2018 - 14:30 3 October 2018</t>
+  </si>
+  <si>
+    <t>Message 'Created Successfully' to be displayed and information in the database to be updated</t>
+  </si>
+  <si>
+    <t>Message 'Created Successfully' displayed and information in the database updated</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter all information' displayed and information in the database is not updated</t>
+  </si>
+  <si>
+    <t>Error Message 'Please enter all information' to be displayed and information in the database to be updated</t>
+  </si>
+  <si>
+    <t>Display Schedule</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to create a new schedule without entering the number of total lessons</t>
+  </si>
+  <si>
+    <t>Term: Term IV
+Level: Primary 4
+Year: 2018
+Subject: Science
+Tuition Fees: 120
+Assign to: Xin
+Reminder: Yes
+Total Lesson:
+Time Period: 13:00 3 October 2018 - 14:30 3 October 2018</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to view the full schedule for a particular level according to information in the database</t>
+  </si>
+  <si>
+    <t>Term: Term IV
+Level: Primary 4</t>
+  </si>
+  <si>
+    <t>Select the Term and Level as specified and click on 'View Timetable'</t>
+  </si>
+  <si>
+    <t>There should be a class for Maths on Monday from 10:30 - 12:00 and a class for Science on Wednesday from 13:00 - 14:30</t>
+  </si>
+  <si>
+    <t>A class for Maths on Monday from 10:30 - 12:00 and a class for Science on Wednesday from 13:00 - 14:31 are displayed</t>
+  </si>
+  <si>
+    <t>View Class Details</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to view the full information about a class</t>
+  </si>
+  <si>
+    <t>Click on the Monday Maths class</t>
+  </si>
+  <si>
+    <t>Information should be displayed as follow:
+Start Date: 2018-10-01
+End Date: 2018-12-10
+Tuition Fees: 120
+Assigned to: Susan</t>
+  </si>
+  <si>
+    <t>Edit Class Details</t>
+  </si>
+  <si>
+    <t>The branch admin should be able to edit the tutor assignment for the class</t>
+  </si>
+  <si>
+    <t>Tutor: riana</t>
+  </si>
+  <si>
+    <t>Double click on the class and click 'Edit Occurrence'. Select riana as the tutor assigned and click 'Save'</t>
+  </si>
+  <si>
+    <t>Message 'Updated Successfully' to be displayed and information in the database to be updated</t>
+  </si>
+  <si>
+    <t>Message 'Updated Successfully' displayed and information in the database updated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2077,15 +3075,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2097,28 +3095,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2130,86 +3128,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,22 +3219,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,27 +3300,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0B9887A6-7CC9-441C-B771-FC27E966D64E}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2337,6 +3403,270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>416279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2499006</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1291167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9E0B53-6834-47D4-AE0A-EA7B30A01095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8156222" y="17116779"/>
+          <a:ext cx="2329673" cy="874888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>388057</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2329673" cy="874888"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B16790-31A3-4B3C-9FAE-695A4CC6E04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10682111" y="17088557"/>
+          <a:ext cx="2329673" cy="874888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>383658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2379337</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1365250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F096AD8-5FDC-42E1-98A7-C00924940232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183563" y="22235596"/>
+          <a:ext cx="2180899" cy="981592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>321745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2357112</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1303337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE99041-5B72-4CFE-8211-960FB5C3410C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10748963" y="22173683"/>
+          <a:ext cx="2180899" cy="981592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611189</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>277814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1865313</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2040858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA6F30E-ACE2-4013-A80F-945A034030B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11183939" y="69532502"/>
+          <a:ext cx="1254124" cy="1763044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436562</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>282581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2095499</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1779797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15125A5-55C2-4D71-90D0-A4F4064097CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11009312" y="71743894"/>
+          <a:ext cx="1658937" cy="1497216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2639,23 +3969,23 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +4031,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2728,7 +4058,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2755,7 +4085,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2782,7 +4112,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2809,7 +4139,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2836,7 +4166,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2863,7 +4193,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2890,7 +4220,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2917,7 +4247,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2944,7 +4274,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2971,7 +4301,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2998,7 +4328,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3027,7 +4357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3056,7 +4386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3085,7 +4415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3114,7 +4444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3143,7 +4473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3172,7 +4502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3201,7 +4531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3230,7 +4560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3259,7 +4589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3288,7 +4618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3317,7 +4647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3346,7 +4676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3375,7 +4705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3402,7 +4732,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3429,7 +4759,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3456,7 +4786,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3485,7 +4815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3512,7 +4842,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3539,7 +4869,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3566,7 +4896,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3593,7 +4923,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3620,7 +4950,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3647,7 +4977,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3674,7 +5004,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3701,7 +5031,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3728,7 +5058,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3755,7 +5085,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3782,7 +5112,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3809,7 +5139,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3836,7 +5166,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3863,7 +5193,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3890,7 +5220,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3917,7 +5247,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3944,7 +5274,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3971,7 +5301,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3998,7 +5328,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4025,7 +5355,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -4052,7 +5382,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -4079,7 +5409,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -4106,7 +5436,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -4133,7 +5463,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -4160,7 +5490,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -4187,7 +5517,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -4214,7 +5544,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -4241,7 +5571,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -4268,7 +5598,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -4281,7 +5611,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -4294,7 +5624,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -4307,7 +5637,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -4320,7 +5650,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -4333,7 +5663,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -4346,7 +5676,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -4359,7 +5689,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -4372,7 +5702,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -4385,7 +5715,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -4398,7 +5728,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -4411,7 +5741,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -4424,7 +5754,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -4437,7 +5767,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -4450,7 +5780,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -4463,7 +5793,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -4476,7 +5806,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -4489,7 +5819,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -4502,7 +5832,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -4515,7 +5845,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -4528,7 +5858,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -4541,7 +5871,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -4554,7 +5884,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -4567,7 +5897,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -4580,7 +5910,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -4593,7 +5923,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4606,7 +5936,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4619,7 +5949,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4632,7 +5962,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4645,7 +5975,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4658,7 +5988,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4671,7 +6001,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -4684,7 +6014,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -4697,7 +6027,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -4710,7 +6040,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -4723,7 +6053,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -4736,7 +6066,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -4749,7 +6079,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -4762,7 +6092,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -4775,7 +6105,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -4788,7 +6118,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -4801,7 +6131,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -4814,7 +6144,7 @@
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -4828,12 +6158,12 @@
       <c r="I101" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4860,20 +6190,20 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +6232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4929,7 +6259,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4956,7 +6286,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4983,7 +6313,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5010,7 +6340,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5037,7 +6367,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5064,7 +6394,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5091,7 +6421,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5118,7 +6448,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5145,7 +6475,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5172,7 +6502,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5199,7 +6529,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>18</v>
       </c>
@@ -5226,7 +6556,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>19</v>
       </c>
@@ -5253,7 +6583,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -5280,7 +6610,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -5307,7 +6637,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>22</v>
       </c>
@@ -5334,7 +6664,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>23</v>
       </c>
@@ -5361,7 +6691,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>24</v>
       </c>
@@ -5388,7 +6718,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>25</v>
       </c>
@@ -5415,7 +6745,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>26</v>
       </c>
@@ -5442,7 +6772,7 @@
       </c>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>27</v>
       </c>
@@ -5469,7 +6799,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>28</v>
       </c>
@@ -5496,7 +6826,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>29</v>
       </c>
@@ -5523,7 +6853,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>30</v>
       </c>
@@ -5550,7 +6880,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>31</v>
       </c>
@@ -5577,7 +6907,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>32</v>
       </c>
@@ -5604,7 +6934,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>33</v>
       </c>
@@ -5631,7 +6961,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>34</v>
       </c>
@@ -5658,7 +6988,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>35</v>
       </c>
@@ -5685,7 +7015,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>36</v>
       </c>
@@ -5712,7 +7042,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>37</v>
       </c>
@@ -5739,7 +7069,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>38</v>
       </c>
@@ -5768,7 +7098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>39</v>
       </c>
@@ -5795,7 +7125,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>40</v>
       </c>
@@ -5822,7 +7152,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>41</v>
       </c>
@@ -5849,7 +7179,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>42</v>
       </c>
@@ -5876,7 +7206,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43</v>
       </c>
@@ -5903,7 +7233,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>44</v>
       </c>
@@ -5930,7 +7260,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>45</v>
       </c>
@@ -5957,7 +7287,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>46</v>
       </c>
@@ -5984,7 +7314,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>47</v>
       </c>
@@ -6011,7 +7341,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>48</v>
       </c>
@@ -6038,7 +7368,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>49</v>
       </c>
@@ -6065,7 +7395,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>50</v>
       </c>
@@ -6092,7 +7422,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>51</v>
       </c>
@@ -6119,7 +7449,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>52</v>
       </c>
@@ -6146,7 +7476,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>53</v>
       </c>
@@ -6175,7 +7505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>54</v>
       </c>
@@ -6202,7 +7532,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -6229,7 +7559,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>56</v>
       </c>
@@ -6256,7 +7586,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>57</v>
       </c>
@@ -6283,7 +7613,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>58</v>
       </c>
@@ -6310,7 +7640,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>59</v>
       </c>
@@ -6337,7 +7667,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>60</v>
       </c>
@@ -6364,7 +7694,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>61</v>
       </c>
@@ -6391,7 +7721,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>62</v>
       </c>
@@ -6418,7 +7748,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>63</v>
       </c>
@@ -6445,7 +7775,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>64</v>
       </c>
@@ -6472,7 +7802,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>68</v>
       </c>
@@ -6499,7 +7829,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>69</v>
       </c>
@@ -6526,7 +7856,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>70</v>
       </c>
@@ -6553,7 +7883,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>71</v>
       </c>
@@ -6580,7 +7910,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>72</v>
       </c>
@@ -6607,7 +7937,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>73</v>
       </c>
@@ -6634,7 +7964,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>74</v>
       </c>
@@ -6663,7 +7993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>75</v>
       </c>
@@ -6690,7 +8020,7 @@
       </c>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>76</v>
       </c>
@@ -6717,7 +8047,7 @@
       </c>
       <c r="I68" s="27"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>77</v>
       </c>
@@ -6730,7 +8060,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>78</v>
       </c>
@@ -6743,7 +8073,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>79</v>
       </c>
@@ -6756,7 +8086,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>80</v>
       </c>
@@ -6769,7 +8099,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>81</v>
       </c>
@@ -6782,7 +8112,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>82</v>
       </c>
@@ -6795,7 +8125,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>83</v>
       </c>
@@ -6808,7 +8138,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>84</v>
       </c>
@@ -6821,7 +8151,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>85</v>
       </c>
@@ -6834,7 +8164,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>86</v>
       </c>
@@ -6847,7 +8177,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>87</v>
       </c>
@@ -6860,7 +8190,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>88</v>
       </c>
@@ -6873,7 +8203,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>89</v>
       </c>
@@ -6886,7 +8216,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>90</v>
       </c>
@@ -6899,7 +8229,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>91</v>
       </c>
@@ -6912,7 +8242,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>92</v>
       </c>
@@ -6925,7 +8255,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>93</v>
       </c>
@@ -6938,7 +8268,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>94</v>
       </c>
@@ -6951,7 +8281,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>95</v>
       </c>
@@ -6964,7 +8294,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>96</v>
       </c>
@@ -6979,10 +8309,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7000,25 +8330,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12FA047-331C-4FBE-BFE8-A77E964657D9}">
   <dimension ref="A1:XFD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7047,7 +8377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -7074,7 +8404,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -7101,7 +8431,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -7128,7 +8458,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7155,7 +8485,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -7182,7 +8512,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -7209,7 +8539,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -7236,7 +8566,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -7263,7 +8593,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -7290,7 +8620,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7317,7 +8647,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -7344,7 +8674,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -7371,7 +8701,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -7398,7 +8728,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7425,7 +8755,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7452,7 +8782,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -7479,7 +8809,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -7506,7 +8836,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -7533,7 +8863,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -7560,7 +8890,7 @@
       </c>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -7587,7 +8917,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -7614,7 +8944,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -7641,7 +8971,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -7668,7 +8998,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -7695,7 +9025,7 @@
       </c>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -7722,7 +9052,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -7749,7 +9079,7 @@
       </c>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -7776,7 +9106,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -7803,7 +9133,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -7830,7 +9160,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -7857,7 +9187,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -7884,7 +9214,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9 16384:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9 16384:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -7911,7 +9241,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9 16384:16384" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9 16384:16384" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -7938,7 +9268,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9 16384:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -7965,7 +9295,7 @@
       </c>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -7992,7 +9322,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -8019,7 +9349,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -8046,7 +9376,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -8073,7 +9403,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -8101,7 +9431,7 @@
       <c r="I40" s="17"/>
       <c r="XFD40" s="37"/>
     </row>
-    <row r="41" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -8128,7 +9458,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -8155,7 +9485,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -8182,7 +9512,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -8209,7 +9539,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -8236,7 +9566,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -8265,7 +9595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -8292,7 +9622,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -8319,7 +9649,7 @@
       </c>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -8346,7 +9676,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="47">
         <v>49</v>
       </c>
@@ -8373,7 +9703,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="47">
         <v>50</v>
       </c>
@@ -8400,7 +9730,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -8427,7 +9757,7 @@
       </c>
       <c r="I52" s="48"/>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -8452,7 +9782,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -8477,7 +9807,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -8504,7 +9834,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -8531,7 +9861,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -8558,7 +9888,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="54">
         <v>57</v>
       </c>
@@ -8585,7 +9915,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -8612,7 +9942,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -8639,7 +9969,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -8666,7 +9996,7 @@
       </c>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -8693,7 +10023,7 @@
       </c>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -8720,7 +10050,7 @@
       </c>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -8747,7 +10077,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -8772,7 +10102,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -8797,7 +10127,7 @@
       </c>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -8824,7 +10154,7 @@
       </c>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -8851,7 +10181,7 @@
       </c>
       <c r="I68" s="27"/>
     </row>
-    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -8878,7 +10208,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -8905,7 +10235,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -8932,7 +10262,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -8959,7 +10289,7 @@
       </c>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -8986,7 +10316,7 @@
       </c>
       <c r="I73" s="46"/>
     </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -9013,7 +10343,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -9040,7 +10370,7 @@
       </c>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -9067,7 +10397,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -9094,7 +10424,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -9121,7 +10451,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -9134,7 +10464,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -9147,7 +10477,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -9160,7 +10490,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -9173,7 +10503,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -9186,7 +10516,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -9199,7 +10529,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -9212,7 +10542,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -9225,7 +10555,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -9238,7 +10568,7 @@
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -9253,10 +10583,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9268,4 +10598,2505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC4B5D2-4E04-46F7-B531-2D61266320A2}">
+  <dimension ref="A1:XFD101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="37.08984375" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>478</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>488</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>491</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>523</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>524</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>541</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>543</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>547</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>553</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>555</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>556</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>628</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>570</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>574</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="G45" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>579</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>580</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>581</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>585</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>586</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>587</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9 16384:16384" ht="116" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="G49" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9 16384:16384" ht="116" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9 16384:16384" ht="87" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="E51" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="E53" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F53" s="67" t="s">
+        <v>598</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="XFD53" s="37"/>
+    </row>
+    <row r="54" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>603</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>605</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>604</v>
+      </c>
+      <c r="E55" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>607</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>609</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="G56" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>612</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="E57" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F57" s="67" t="s">
+        <v>614</v>
+      </c>
+      <c r="G57" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9 16384:16384" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>617</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>616</v>
+      </c>
+      <c r="E58" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="F58" s="67" t="s">
+        <v>618</v>
+      </c>
+      <c r="G58" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9 16384:16384" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="F59" s="73" t="s">
+        <v>585</v>
+      </c>
+      <c r="G59" s="73" t="s">
+        <v>628</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9 16384:16384" ht="87" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F60" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9 16384:16384" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="D61" s="66" t="s">
+        <v>634</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F61" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="H61" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9 16384:16384" ht="87" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>637</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="H62" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9 16384:16384" ht="87" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="E63" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F63" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9 16384:16384" ht="87" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="D64" s="66" t="s">
+        <v>640</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F64" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G64" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="H64" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="D65" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="E65" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F65" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="H65" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="48"/>
+    </row>
+    <row r="66" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>644</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>645</v>
+      </c>
+      <c r="F66" s="66" t="s">
+        <v>650</v>
+      </c>
+      <c r="G66" s="66" t="s">
+        <v>651</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>646</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>645</v>
+      </c>
+      <c r="F67" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="G67" s="66" t="s">
+        <v>649</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>652</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="65" t="s">
+        <v>645</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>653</v>
+      </c>
+      <c r="G68" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>655</v>
+      </c>
+      <c r="D69" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>658</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>659</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>663</v>
+      </c>
+      <c r="D70" s="74" t="s">
+        <v>660</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="F70" s="74" t="s">
+        <v>661</v>
+      </c>
+      <c r="G70" s="74" t="s">
+        <v>662</v>
+      </c>
+      <c r="H70" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>664</v>
+      </c>
+      <c r="D71" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>667</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>668</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>670</v>
+      </c>
+      <c r="D72" s="74" t="s">
+        <v>669</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>666</v>
+      </c>
+      <c r="F72" s="74" t="s">
+        <v>676</v>
+      </c>
+      <c r="G72" s="74" t="s">
+        <v>668</v>
+      </c>
+      <c r="H72" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="66" t="s">
+        <v>671</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>672</v>
+      </c>
+      <c r="E73" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F73" s="71" t="s">
+        <v>673</v>
+      </c>
+      <c r="G73" s="71" t="s">
+        <v>674</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>671</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>675</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F74" s="71" t="s">
+        <v>677</v>
+      </c>
+      <c r="G74" s="71" t="s">
+        <v>678</v>
+      </c>
+      <c r="H74" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="51"/>
+    </row>
+    <row r="75" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="66" t="s">
+        <v>671</v>
+      </c>
+      <c r="D75" s="71" t="s">
+        <v>679</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F75" s="71" t="s">
+        <v>677</v>
+      </c>
+      <c r="G75" s="71" t="s">
+        <v>678</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>681</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="F76" s="66" t="s">
+        <v>683</v>
+      </c>
+      <c r="G76" s="66" t="s">
+        <v>684</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>685</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>669</v>
+      </c>
+      <c r="E77" s="73" t="s">
+        <v>682</v>
+      </c>
+      <c r="F77" s="74" t="s">
+        <v>686</v>
+      </c>
+      <c r="G77" s="74" t="s">
+        <v>668</v>
+      </c>
+      <c r="H77" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>672</v>
+      </c>
+      <c r="E78" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="F78" s="71" t="s">
+        <v>673</v>
+      </c>
+      <c r="G78" s="71" t="s">
+        <v>674</v>
+      </c>
+      <c r="H78" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>675</v>
+      </c>
+      <c r="E79" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="F79" s="71" t="s">
+        <v>677</v>
+      </c>
+      <c r="G79" s="71" t="s">
+        <v>678</v>
+      </c>
+      <c r="H79" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>679</v>
+      </c>
+      <c r="E80" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="F80" s="71" t="s">
+        <v>677</v>
+      </c>
+      <c r="G80" s="71" t="s">
+        <v>678</v>
+      </c>
+      <c r="H80" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="F81" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="G81" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="F82" s="76" t="s">
+        <v>696</v>
+      </c>
+      <c r="G82" s="77" t="s">
+        <v>693</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{2DA8333D-3041-4192-B9CD-E95CC301C353}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>